--- a/capiq_data/in_process_data/IQ262247.xlsx
+++ b/capiq_data/in_process_data/IQ262247.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29776F2-860F-4A62-A73D-F1C0BA3E24C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A379FFD-649B-47C7-87AB-82822B926D96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"09ac61dc-63b7-4539-8b05-75c0901b423c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"9036bf67-e3e9-432c-bbe9-8da058ca54c9"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>624</v>
+        <v>286.7</v>
       </c>
       <c r="D2">
-        <v>3978</v>
+        <v>2412.9</v>
       </c>
       <c r="E2">
-        <v>1610</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="F2">
-        <v>2350</v>
+        <v>1306.8</v>
       </c>
       <c r="G2">
-        <v>3730</v>
+        <v>2347.1999999999998</v>
       </c>
       <c r="H2">
-        <v>11172</v>
+        <v>7252.3</v>
       </c>
       <c r="I2">
-        <v>1165</v>
+        <v>738.9</v>
       </c>
       <c r="J2">
-        <v>2822</v>
+        <v>2536.9</v>
       </c>
       <c r="K2">
-        <v>48</v>
+        <v>121.1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3728</v>
+        <v>2244.1</v>
       </c>
       <c r="O2">
-        <v>8355</v>
+        <v>5667</v>
       </c>
       <c r="P2">
-        <v>3431</v>
+        <v>2978.2</v>
       </c>
       <c r="Q2">
-        <v>-164</v>
+        <v>-4.3</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>39200</v>
+        <v>38300</v>
       </c>
       <c r="T2">
-        <v>2817</v>
+        <v>1585.3</v>
       </c>
       <c r="U2">
-        <v>490</v>
+        <v>206.6</v>
       </c>
       <c r="V2">
-        <v>968</v>
+        <v>454.4</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-879</v>
+        <v>-415.8</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-24</v>
+        <v>8.1</v>
       </c>
       <c r="AA2">
-        <v>624</v>
+        <v>286.7</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>576</v>
+        <v>267.89999999999998</v>
       </c>
       <c r="D3">
-        <v>3994</v>
+        <v>2212.1999999999998</v>
       </c>
       <c r="E3">
-        <v>1787</v>
+        <v>1136.4000000000001</v>
       </c>
       <c r="F3">
-        <v>2331</v>
+        <v>1180.4000000000001</v>
       </c>
       <c r="G3">
-        <v>4274</v>
+        <v>2346.3000000000002</v>
       </c>
       <c r="H3">
-        <v>11931</v>
+        <v>7096.6</v>
       </c>
       <c r="I3">
-        <v>1181</v>
+        <v>669.4</v>
       </c>
       <c r="J3">
-        <v>3166</v>
+        <v>2530.4</v>
       </c>
       <c r="K3">
-        <v>41</v>
+        <v>98.9</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-1243</v>
+        <v>-190.9</v>
       </c>
       <c r="N3">
-        <v>4282</v>
+        <v>2370.8000000000002</v>
       </c>
       <c r="O3">
-        <v>9340</v>
+        <v>5953.3</v>
       </c>
       <c r="P3">
-        <v>3804</v>
+        <v>3092.8</v>
       </c>
       <c r="Q3">
-        <v>196</v>
+        <v>21.3</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2591</v>
+        <v>1143.3</v>
       </c>
       <c r="U3">
-        <v>686</v>
+        <v>227.9</v>
       </c>
       <c r="V3">
-        <v>680</v>
+        <v>344.2</v>
       </c>
       <c r="W3">
-        <v>-261</v>
+        <v>-89.8</v>
       </c>
       <c r="X3">
-        <v>-417</v>
+        <v>-275.5</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-13</v>
+        <v>4.7</v>
       </c>
       <c r="AA3">
-        <v>576</v>
+        <v>267.89999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>622</v>
+        <v>287.2</v>
       </c>
       <c r="D4">
-        <v>4185</v>
+        <v>2238.6999999999998</v>
       </c>
       <c r="E4">
-        <v>1819</v>
+        <v>1174.3</v>
       </c>
       <c r="F4">
-        <v>2404</v>
+        <v>1188.2</v>
       </c>
       <c r="G4">
-        <v>4470</v>
+        <v>2391.5</v>
       </c>
       <c r="H4">
-        <v>13244</v>
+        <v>7145.2</v>
       </c>
       <c r="I4">
-        <v>1236</v>
+        <v>699</v>
       </c>
       <c r="J4">
-        <v>4022</v>
+        <v>2958.2</v>
       </c>
       <c r="K4">
-        <v>38</v>
+        <v>89.3</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4249</v>
+        <v>2080.6</v>
       </c>
       <c r="O4">
-        <v>10100</v>
+        <v>6070.1</v>
       </c>
       <c r="P4">
-        <v>5013</v>
+        <v>3398.6</v>
       </c>
       <c r="Q4">
-        <v>53</v>
+        <v>23.2</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3144</v>
+        <v>1075.0999999999999</v>
       </c>
       <c r="U4">
-        <v>739</v>
+        <v>251.1</v>
       </c>
       <c r="V4">
-        <v>474</v>
+        <v>277.7</v>
       </c>
       <c r="W4">
-        <v>-307</v>
+        <v>-97.3</v>
       </c>
       <c r="X4">
-        <v>616</v>
+        <v>-130.80000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>104</v>
+        <v>-3.8</v>
       </c>
       <c r="AA4">
-        <v>622</v>
+        <v>287.2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>643</v>
+        <v>296.2</v>
       </c>
       <c r="D5">
-        <v>4383</v>
+        <v>2304.9</v>
       </c>
       <c r="E5">
-        <v>1677</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="F5">
-        <v>2490</v>
+        <v>1232.4000000000001</v>
       </c>
       <c r="G5">
-        <v>4443</v>
+        <v>2404.6999999999998</v>
       </c>
       <c r="H5">
-        <v>12768</v>
+        <v>7122.8</v>
       </c>
       <c r="I5">
-        <v>1150</v>
+        <v>665.9</v>
       </c>
       <c r="J5">
-        <v>3768</v>
+        <v>3083.3</v>
       </c>
       <c r="K5">
-        <v>67</v>
+        <v>104.6</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4317</v>
+        <v>2155.9</v>
       </c>
       <c r="O5">
-        <v>9898</v>
+        <v>6314.5</v>
       </c>
       <c r="P5">
-        <v>4756</v>
+        <v>3546.2</v>
       </c>
       <c r="Q5">
-        <v>206</v>
+        <v>38.5</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2870</v>
+        <v>808.3</v>
       </c>
       <c r="U5">
-        <v>945</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="V5">
-        <v>903</v>
+        <v>475.9</v>
       </c>
       <c r="W5">
-        <v>-282</v>
+        <v>-100.6</v>
       </c>
       <c r="X5">
-        <v>-765</v>
+        <v>-353.3</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-26</v>
+        <v>-0.9</v>
       </c>
       <c r="AA5">
-        <v>643</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>590</v>
+        <v>295.3</v>
       </c>
       <c r="D6">
-        <v>4172</v>
+        <v>2328.5</v>
       </c>
       <c r="E6">
-        <v>1675</v>
+        <v>1124.9000000000001</v>
       </c>
       <c r="F6">
-        <v>2409</v>
+        <v>1248.4000000000001</v>
       </c>
       <c r="G6">
-        <v>4402</v>
+        <v>2203.4</v>
       </c>
       <c r="H6">
-        <v>12724</v>
+        <v>6984.8</v>
       </c>
       <c r="I6">
-        <v>1244</v>
+        <v>678.1</v>
       </c>
       <c r="J6">
-        <v>4432</v>
+        <v>2812</v>
       </c>
       <c r="K6">
-        <v>34</v>
+        <v>101.6</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3716</v>
+        <v>2123.5</v>
       </c>
       <c r="O6">
-        <v>10183</v>
+        <v>5934.3</v>
       </c>
       <c r="P6">
-        <v>4812</v>
+        <v>3239.1</v>
       </c>
       <c r="Q6">
-        <v>-67</v>
+        <v>-116.9</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="T6">
-        <v>2541</v>
+        <v>1050.5</v>
       </c>
       <c r="U6">
-        <v>878</v>
+        <v>172.7</v>
       </c>
       <c r="V6">
-        <v>839</v>
+        <v>406.1</v>
       </c>
       <c r="W6">
-        <v>-261</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-676</v>
+        <v>-451.1</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AA6">
-        <v>590</v>
+        <v>295.3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>593</v>
+        <v>289.7</v>
       </c>
       <c r="D7">
-        <v>4200</v>
+        <v>2195.1999999999998</v>
       </c>
       <c r="E7">
-        <v>1827</v>
+        <v>1148.5</v>
       </c>
       <c r="F7">
-        <v>2439</v>
+        <v>1202.8</v>
       </c>
       <c r="G7">
-        <v>4849</v>
+        <v>2294.1</v>
       </c>
       <c r="H7">
-        <v>13254</v>
+        <v>7052.6</v>
       </c>
       <c r="I7">
-        <v>1187</v>
+        <v>654.4</v>
       </c>
       <c r="J7">
-        <v>4595</v>
+        <v>2950.3</v>
       </c>
       <c r="K7">
-        <v>38</v>
+        <v>125.2</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-1013</v>
+        <v>-193.1</v>
       </c>
       <c r="N7">
-        <v>4107</v>
+        <v>2261.5</v>
       </c>
       <c r="O7">
-        <v>10758</v>
+        <v>6409.6</v>
       </c>
       <c r="P7">
-        <v>4967</v>
+        <v>3428.3</v>
       </c>
       <c r="Q7">
-        <v>166</v>
+        <v>12.1</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2496</v>
+        <v>643</v>
       </c>
       <c r="U7">
-        <v>1044</v>
+        <v>184.8</v>
       </c>
       <c r="V7">
-        <v>662</v>
+        <v>274.10000000000002</v>
       </c>
       <c r="W7">
-        <v>-278</v>
+        <v>-99.7</v>
       </c>
       <c r="X7">
-        <v>-465</v>
+        <v>-209.1</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>593</v>
+        <v>289.7</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>627</v>
+        <v>327</v>
       </c>
       <c r="D8">
-        <v>4267</v>
+        <v>2297</v>
       </c>
       <c r="E8">
-        <v>1785</v>
+        <v>1164.5999999999999</v>
       </c>
       <c r="F8">
-        <v>2463</v>
+        <v>1244</v>
       </c>
       <c r="G8">
-        <v>4835</v>
+        <v>2357.6</v>
       </c>
       <c r="H8">
-        <v>13153</v>
+        <v>7134.2</v>
       </c>
       <c r="I8">
-        <v>1226</v>
+        <v>663.5</v>
       </c>
       <c r="J8">
-        <v>5068</v>
+        <v>3283.7</v>
       </c>
       <c r="K8">
-        <v>43</v>
+        <v>136.1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3566</v>
+        <v>2167.6999999999998</v>
       </c>
       <c r="O8">
-        <v>10643</v>
+        <v>6661.6</v>
       </c>
       <c r="P8">
-        <v>5363</v>
+        <v>3773.7</v>
       </c>
       <c r="Q8">
-        <v>-49</v>
+        <v>62.6</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2510</v>
+        <v>472.6</v>
       </c>
       <c r="U8">
-        <v>995</v>
+        <v>247.4</v>
       </c>
       <c r="V8">
-        <v>531</v>
+        <v>375</v>
       </c>
       <c r="W8">
-        <v>-297</v>
+        <v>-108.1</v>
       </c>
       <c r="X8">
-        <v>-265</v>
+        <v>-222.9</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-129</v>
+        <v>-23.8</v>
       </c>
       <c r="AA8">
-        <v>627</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>654</v>
+        <v>330.7</v>
       </c>
       <c r="D9">
-        <v>4332</v>
+        <v>2381.6999999999998</v>
       </c>
       <c r="E9">
-        <v>1857</v>
+        <v>1129</v>
       </c>
       <c r="F9">
-        <v>2530</v>
+        <v>1302.5999999999999</v>
       </c>
       <c r="G9">
-        <v>4761</v>
+        <v>2233.5</v>
       </c>
       <c r="H9">
-        <v>13424</v>
+        <v>6928.3</v>
       </c>
       <c r="I9">
-        <v>1181</v>
+        <v>653.79999999999995</v>
       </c>
       <c r="J9">
-        <v>4943</v>
+        <v>3072.1</v>
       </c>
       <c r="K9">
-        <v>53</v>
+        <v>126.9</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3700</v>
+        <v>2290.9</v>
       </c>
       <c r="O9">
-        <v>10727</v>
+        <v>6604.9</v>
       </c>
       <c r="P9">
-        <v>5246</v>
+        <v>3643.1</v>
       </c>
       <c r="Q9">
-        <v>-86</v>
+        <v>-46.7</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>38600</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>2697</v>
+        <v>323.39999999999998</v>
       </c>
       <c r="U9">
-        <v>909</v>
+        <v>200.7</v>
       </c>
       <c r="V9">
-        <v>940</v>
+        <v>554.4</v>
       </c>
       <c r="W9">
-        <v>-376</v>
+        <v>-98</v>
       </c>
       <c r="X9">
-        <v>-728</v>
+        <v>-517</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-233</v>
+        <v>10.3</v>
       </c>
       <c r="AA9">
-        <v>654</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>598</v>
+        <v>340.9</v>
       </c>
       <c r="D10">
-        <v>4286</v>
+        <v>2420.4</v>
       </c>
       <c r="E10">
-        <v>1668</v>
+        <v>1145.4000000000001</v>
       </c>
       <c r="F10">
-        <v>2507</v>
+        <v>1320.7</v>
       </c>
       <c r="G10">
-        <v>4556</v>
+        <v>2228.1</v>
       </c>
       <c r="H10">
-        <v>13394</v>
+        <v>7087.2</v>
       </c>
       <c r="I10">
-        <v>1290</v>
+        <v>728.3</v>
       </c>
       <c r="J10">
-        <v>4926</v>
+        <v>3210.8</v>
       </c>
       <c r="K10">
-        <v>54</v>
+        <v>94.6</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3736</v>
+        <v>2148.6999999999998</v>
       </c>
       <c r="O10">
-        <v>11004</v>
+        <v>6527.8</v>
       </c>
       <c r="P10">
-        <v>5230</v>
+        <v>3603.9</v>
       </c>
       <c r="Q10">
-        <v>-25</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>37700</v>
       </c>
       <c r="T10">
-        <v>2390</v>
+        <v>559.4</v>
       </c>
       <c r="U10">
-        <v>884</v>
+        <v>167.9</v>
       </c>
       <c r="V10">
-        <v>1063</v>
+        <v>407.7</v>
       </c>
       <c r="W10">
-        <v>-217</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-843</v>
+        <v>-311</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-17</v>
+        <v>3.5</v>
       </c>
       <c r="AA10">
-        <v>598</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="D11">
-        <v>4315</v>
+        <v>2348.4</v>
       </c>
       <c r="E11">
-        <v>1808</v>
+        <v>1157.0999999999999</v>
       </c>
       <c r="F11">
-        <v>2523</v>
+        <v>1298.2</v>
       </c>
       <c r="G11">
-        <v>4828</v>
+        <v>2377.1</v>
       </c>
       <c r="H11">
-        <v>13533</v>
+        <v>7248.6</v>
       </c>
       <c r="I11">
-        <v>1237</v>
+        <v>695.9</v>
       </c>
       <c r="J11">
-        <v>5095</v>
+        <v>3165.4</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>115.4</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1436</v>
+        <v>-129.19999999999999</v>
       </c>
       <c r="N11">
-        <v>4091</v>
+        <v>2340.9</v>
       </c>
       <c r="O11">
-        <v>11514</v>
+        <v>6912.4</v>
       </c>
       <c r="P11">
-        <v>5357</v>
+        <v>3596</v>
       </c>
       <c r="Q11">
-        <v>48</v>
+        <v>37.9</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2019</v>
+        <v>336.2</v>
       </c>
       <c r="U11">
-        <v>932</v>
+        <v>205.8</v>
       </c>
       <c r="V11">
-        <v>777</v>
+        <v>367.1</v>
       </c>
       <c r="W11">
-        <v>-290</v>
+        <v>-97.4</v>
       </c>
       <c r="X11">
-        <v>-462</v>
+        <v>-268</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-145</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>460</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>561</v>
+        <v>359.8</v>
       </c>
       <c r="D12">
-        <v>4346</v>
+        <v>2458.6</v>
       </c>
       <c r="E12">
-        <v>1778</v>
+        <v>1196</v>
       </c>
       <c r="F12">
-        <v>2544</v>
+        <v>1352.8</v>
       </c>
       <c r="G12">
-        <v>4867</v>
+        <v>2443</v>
       </c>
       <c r="H12">
-        <v>13487</v>
+        <v>7426.7</v>
       </c>
       <c r="I12">
-        <v>1279</v>
+        <v>684.2</v>
       </c>
       <c r="J12">
-        <v>5032</v>
+        <v>2995.8</v>
       </c>
       <c r="K12">
-        <v>21</v>
+        <v>103.8</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4444</v>
+        <v>2325.4</v>
       </c>
       <c r="O12">
-        <v>11683</v>
+        <v>6713.1</v>
       </c>
       <c r="P12">
-        <v>5628</v>
+        <v>3459.3</v>
       </c>
       <c r="Q12">
-        <v>-48</v>
+        <v>13.4</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1804</v>
+        <v>713.6</v>
       </c>
       <c r="U12">
-        <v>884</v>
+        <v>219.2</v>
       </c>
       <c r="V12">
-        <v>548</v>
+        <v>363.2</v>
       </c>
       <c r="W12">
-        <v>-335</v>
+        <v>-139.6</v>
       </c>
       <c r="X12">
-        <v>-384</v>
+        <v>-337.6</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>561</v>
+        <v>359.8</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>656</v>
+        <v>365.4</v>
       </c>
       <c r="D13">
-        <v>4398</v>
+        <v>2523.8000000000002</v>
       </c>
       <c r="E13">
-        <v>1737</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="F13">
-        <v>2593</v>
+        <v>1387.3</v>
       </c>
       <c r="G13">
-        <v>4600</v>
+        <v>2474.9</v>
       </c>
       <c r="H13">
-        <v>13439</v>
+        <v>7406</v>
       </c>
       <c r="I13">
-        <v>1234</v>
+        <v>687.8</v>
       </c>
       <c r="J13">
-        <v>4677</v>
+        <v>2731.9</v>
       </c>
       <c r="K13">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4491</v>
+        <v>2419.3000000000002</v>
       </c>
       <c r="O13">
-        <v>11432</v>
+        <v>6568.8</v>
       </c>
       <c r="P13">
-        <v>5284</v>
+        <v>3235.7</v>
       </c>
       <c r="Q13">
-        <v>-163</v>
+        <v>36.9</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2007</v>
+        <v>837.2</v>
       </c>
       <c r="U13">
-        <v>721</v>
+        <v>256.10000000000002</v>
       </c>
       <c r="V13">
-        <v>1040</v>
+        <v>549.4</v>
       </c>
       <c r="W13">
-        <v>-405</v>
+        <v>-129.4</v>
       </c>
       <c r="X13">
-        <v>-964</v>
+        <v>-452</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>656</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>564</v>
+        <v>372.1</v>
       </c>
       <c r="D14">
-        <v>4361</v>
+        <v>2572.6</v>
       </c>
       <c r="E14">
-        <v>1636</v>
+        <v>1222.4000000000001</v>
       </c>
       <c r="F14">
-        <v>2573</v>
+        <v>1409</v>
       </c>
       <c r="G14">
-        <v>4931</v>
+        <v>2496.5</v>
       </c>
       <c r="H14">
-        <v>13985</v>
+        <v>7478.8</v>
       </c>
       <c r="I14">
-        <v>1343</v>
+        <v>753.6</v>
       </c>
       <c r="J14">
-        <v>4750</v>
+        <v>2684.9</v>
       </c>
       <c r="K14">
-        <v>13</v>
+        <v>103.6</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4579</v>
+        <v>2445.4</v>
       </c>
       <c r="O14">
-        <v>11449</v>
+        <v>6377.3</v>
       </c>
       <c r="P14">
-        <v>5658</v>
+        <v>3102.9</v>
       </c>
       <c r="Q14">
-        <v>241</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>37400</v>
+        <v>36600</v>
       </c>
       <c r="T14">
-        <v>2536</v>
+        <v>1101.5</v>
       </c>
       <c r="U14">
-        <v>962</v>
+        <v>265.3</v>
       </c>
       <c r="V14">
-        <v>839</v>
+        <v>488</v>
       </c>
       <c r="W14">
-        <v>-212</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-332</v>
+        <v>-499.6</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-25</v>
+        <v>41.9</v>
       </c>
       <c r="AA14">
-        <v>564</v>
+        <v>372.1</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>388</v>
+        <v>338.5</v>
       </c>
       <c r="D15">
-        <v>4325</v>
+        <v>2513.5</v>
       </c>
       <c r="E15">
-        <v>1670</v>
+        <v>1204.8</v>
       </c>
       <c r="F15">
-        <v>2534</v>
+        <v>1399.6</v>
       </c>
       <c r="G15">
-        <v>5677</v>
+        <v>2565</v>
       </c>
       <c r="H15">
-        <v>14432</v>
+        <v>7501.1</v>
       </c>
       <c r="I15">
-        <v>1264</v>
+        <v>740.2</v>
       </c>
       <c r="J15">
-        <v>5746</v>
+        <v>2687.3</v>
       </c>
       <c r="K15">
-        <v>24</v>
+        <v>112.9</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1938</v>
+        <v>-179.2</v>
       </c>
       <c r="N15">
-        <v>4702</v>
+        <v>2542.8000000000002</v>
       </c>
       <c r="O15">
-        <v>12532</v>
+        <v>6693.7</v>
       </c>
       <c r="P15">
-        <v>6666</v>
+        <v>3115.1</v>
       </c>
       <c r="Q15">
-        <v>833</v>
+        <v>6.2</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1900</v>
+        <v>807.4</v>
       </c>
       <c r="U15">
-        <v>1795</v>
+        <v>271.5</v>
       </c>
       <c r="V15">
-        <v>820</v>
+        <v>371.3</v>
       </c>
       <c r="W15">
-        <v>-316</v>
+        <v>-129.4</v>
       </c>
       <c r="X15">
-        <v>303</v>
+        <v>-325.89999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>388</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>622</v>
+        <v>373.9</v>
       </c>
       <c r="D16">
-        <v>4352</v>
+        <v>2571.6999999999998</v>
       </c>
       <c r="E16">
-        <v>1803</v>
+        <v>1277.2</v>
       </c>
       <c r="F16">
-        <v>2558</v>
+        <v>1423.6</v>
       </c>
       <c r="G16">
-        <v>5174</v>
+        <v>2834.9</v>
       </c>
       <c r="H16">
-        <v>13988</v>
+        <v>8430.4</v>
       </c>
       <c r="I16">
-        <v>1251</v>
+        <v>758.4</v>
       </c>
       <c r="J16">
-        <v>5743</v>
+        <v>3262.4</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>66.7</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4061</v>
+        <v>2641</v>
       </c>
       <c r="O16">
-        <v>11917</v>
+        <v>7399</v>
       </c>
       <c r="P16">
-        <v>6063</v>
+        <v>3962.4</v>
       </c>
       <c r="Q16">
-        <v>-634</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2071</v>
+        <v>1031.4000000000001</v>
       </c>
       <c r="U16">
-        <v>1161</v>
+        <v>417.3</v>
       </c>
       <c r="V16">
-        <v>569</v>
+        <v>272.7</v>
       </c>
       <c r="W16">
-        <v>-346</v>
+        <v>-139.19999999999999</v>
       </c>
       <c r="X16">
-        <v>-1133</v>
+        <v>624.5</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>622</v>
+        <v>373.9</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>542</v>
+        <v>329</v>
       </c>
       <c r="D17">
-        <v>4379</v>
+        <v>2695.7</v>
       </c>
       <c r="E17">
-        <v>1747</v>
+        <v>1286.7</v>
       </c>
       <c r="F17">
-        <v>2565</v>
+        <v>1476.7</v>
       </c>
       <c r="G17">
-        <v>5181</v>
+        <v>2815.9</v>
       </c>
       <c r="H17">
-        <v>13685</v>
+        <v>8489.6</v>
       </c>
       <c r="I17">
-        <v>1215</v>
+        <v>784.6</v>
       </c>
       <c r="J17">
-        <v>5447</v>
+        <v>3120.7</v>
       </c>
       <c r="K17">
-        <v>14</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4412</v>
+        <v>2631.5</v>
       </c>
       <c r="O17">
-        <v>11939</v>
+        <v>7242.5</v>
       </c>
       <c r="P17">
-        <v>6061</v>
+        <v>3684.7</v>
       </c>
       <c r="Q17">
-        <v>194</v>
+        <v>-46.7</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1746</v>
+        <v>1247.0999999999999</v>
       </c>
       <c r="U17">
-        <v>1355</v>
+        <v>370.6</v>
       </c>
       <c r="V17">
-        <v>1003</v>
+        <v>586.5</v>
       </c>
       <c r="W17">
-        <v>-328</v>
+        <v>-128.80000000000001</v>
       </c>
       <c r="X17">
-        <v>-607</v>
+        <v>-502.8</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>542</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>628</v>
+        <v>285.7</v>
       </c>
       <c r="D18">
-        <v>4221</v>
+        <v>2803.3</v>
       </c>
       <c r="E18">
-        <v>1552</v>
+        <v>1319.9</v>
       </c>
       <c r="F18">
-        <v>2481</v>
+        <v>1540.5</v>
       </c>
       <c r="G18">
-        <v>4863</v>
+        <v>2739.9</v>
       </c>
       <c r="H18">
-        <v>13459</v>
+        <v>8672.9</v>
       </c>
       <c r="I18">
-        <v>1231</v>
+        <v>864.4</v>
       </c>
       <c r="J18">
-        <v>5646</v>
+        <v>3089.5</v>
       </c>
       <c r="K18">
-        <v>16</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3946</v>
+        <v>2730.7</v>
       </c>
       <c r="O18">
-        <v>12074</v>
+        <v>7211.5</v>
       </c>
       <c r="P18">
-        <v>6150</v>
+        <v>3675.1</v>
       </c>
       <c r="Q18">
-        <v>-266</v>
+        <v>-51</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>37700</v>
+        <v>36000</v>
       </c>
       <c r="T18">
-        <v>1385</v>
+        <v>1461.4</v>
       </c>
       <c r="U18">
-        <v>1089</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="V18">
-        <v>906</v>
+        <v>523.79999999999995</v>
       </c>
       <c r="W18">
-        <v>-310</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-733</v>
+        <v>-406.9</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-102</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AA18">
-        <v>628</v>
+        <v>285.7</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>542</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="D19">
-        <v>4070</v>
+        <v>2743</v>
       </c>
       <c r="E19">
-        <v>1611</v>
+        <v>1316.2</v>
       </c>
       <c r="F19">
-        <v>2396</v>
+        <v>1514.3</v>
       </c>
       <c r="G19">
-        <v>4700</v>
+        <v>2944.2</v>
       </c>
       <c r="H19">
-        <v>13156</v>
+        <v>8691.5</v>
       </c>
       <c r="I19">
-        <v>1167</v>
+        <v>816.7</v>
       </c>
       <c r="J19">
-        <v>5622</v>
+        <v>2969.9</v>
       </c>
       <c r="K19">
-        <v>18</v>
+        <v>114.4</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-2171</v>
+        <v>-613.29999999999995</v>
       </c>
       <c r="N19">
-        <v>4323</v>
+        <v>3090.8</v>
       </c>
       <c r="O19">
-        <v>12417</v>
+        <v>7676.5</v>
       </c>
       <c r="P19">
-        <v>6128</v>
+        <v>3756.8</v>
       </c>
       <c r="Q19">
-        <v>-230</v>
+        <v>94.3</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>739</v>
+        <v>1015</v>
       </c>
       <c r="U19">
-        <v>859</v>
+        <v>413.9</v>
       </c>
       <c r="V19">
-        <v>727</v>
+        <v>425</v>
       </c>
       <c r="W19">
-        <v>-329</v>
+        <v>-127.5</v>
       </c>
       <c r="X19">
-        <v>-641</v>
+        <v>-255.4</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-142</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>542</v>
+        <v>300.10000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>574</v>
+        <v>342.9</v>
       </c>
       <c r="D20">
-        <v>4066</v>
+        <v>2837.5</v>
       </c>
       <c r="E20">
-        <v>1691</v>
+        <v>1315.4</v>
       </c>
       <c r="F20">
-        <v>2371</v>
+        <v>1562.2</v>
       </c>
       <c r="G20">
-        <v>4988</v>
+        <v>2929.4</v>
       </c>
       <c r="H20">
-        <v>13660</v>
+        <v>8667.2000000000007</v>
       </c>
       <c r="I20">
-        <v>1169</v>
+        <v>815.5</v>
       </c>
       <c r="J20">
-        <v>6186</v>
+        <v>3455.1</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4206</v>
+        <v>2465.1999999999998</v>
       </c>
       <c r="O20">
-        <v>12903</v>
+        <v>7472.3</v>
       </c>
       <c r="P20">
-        <v>6683</v>
+        <v>3889.1</v>
       </c>
       <c r="Q20">
-        <v>200</v>
+        <v>-21.8</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>757</v>
+        <v>1194.9000000000001</v>
       </c>
       <c r="U20">
-        <v>1059</v>
+        <v>392.1</v>
       </c>
       <c r="V20">
-        <v>496</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="W20">
-        <v>-360</v>
+        <v>-163.69999999999999</v>
       </c>
       <c r="X20">
-        <v>-115</v>
+        <v>-217.4</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>574</v>
+        <v>342.9</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>726</v>
+        <v>347.2</v>
       </c>
       <c r="D21">
-        <v>3999</v>
+        <v>2911.8</v>
       </c>
       <c r="E21">
-        <v>1561</v>
+        <v>1337.2</v>
       </c>
       <c r="F21">
-        <v>2350</v>
+        <v>1603.3</v>
       </c>
       <c r="G21">
-        <v>5089</v>
+        <v>2897.5</v>
       </c>
       <c r="H21">
-        <v>13563</v>
+        <v>8654.9</v>
       </c>
       <c r="I21">
-        <v>1109</v>
+        <v>804.8</v>
       </c>
       <c r="J21">
-        <v>6554</v>
+        <v>3017.2</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>201.7</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3937</v>
+        <v>2758.4</v>
       </c>
       <c r="O21">
-        <v>12973</v>
+        <v>7352.2</v>
       </c>
       <c r="P21">
-        <v>6790</v>
+        <v>3565.4</v>
       </c>
       <c r="Q21">
-        <v>386</v>
+        <v>-15.8</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>590</v>
+        <v>1302.7</v>
       </c>
       <c r="U21">
-        <v>1445</v>
+        <v>376.3</v>
       </c>
       <c r="V21">
-        <v>885</v>
+        <v>577</v>
       </c>
       <c r="W21">
-        <v>-344</v>
+        <v>-151.9</v>
       </c>
       <c r="X21">
-        <v>-570</v>
+        <v>-583.1</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>726</v>
+        <v>347.2</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-458</v>
+        <v>361.2</v>
       </c>
       <c r="D22">
-        <v>3899</v>
+        <v>2904.6</v>
       </c>
       <c r="E22">
-        <v>1427</v>
+        <v>1309.4000000000001</v>
       </c>
       <c r="F22">
-        <v>2302</v>
+        <v>1625.4</v>
       </c>
       <c r="G22">
-        <v>4384</v>
+        <v>2757.1</v>
       </c>
       <c r="H22">
-        <v>11935</v>
+        <v>8507.1</v>
       </c>
       <c r="I22">
-        <v>1110</v>
+        <v>876.1</v>
       </c>
       <c r="J22">
-        <v>6246</v>
+        <v>2918</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>171.5</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3534</v>
+        <v>2743</v>
       </c>
       <c r="O22">
-        <v>11979</v>
+        <v>7053.7</v>
       </c>
       <c r="P22">
-        <v>6548</v>
+        <v>3446.2</v>
       </c>
       <c r="Q22">
-        <v>-475</v>
+        <v>-35.6</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>37900</v>
+        <v>35800</v>
       </c>
       <c r="T22">
-        <v>-44</v>
+        <v>1453.4</v>
       </c>
       <c r="U22">
-        <v>970</v>
+        <v>340.7</v>
       </c>
       <c r="V22">
-        <v>841</v>
+        <v>479</v>
       </c>
       <c r="W22">
-        <v>-322</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-950</v>
+        <v>-468.5</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-42</v>
+        <v>-10</v>
       </c>
       <c r="AA22">
-        <v>-458</v>
+        <v>361.2</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>533</v>
+        <v>324.5</v>
       </c>
       <c r="D23">
-        <v>3762</v>
+        <v>2870.6</v>
       </c>
       <c r="E23">
-        <v>1546</v>
+        <v>1320.8</v>
       </c>
       <c r="F23">
-        <v>2256</v>
+        <v>1615.6</v>
       </c>
       <c r="G23">
-        <v>4490</v>
+        <v>2949.7</v>
       </c>
       <c r="H23">
-        <v>12448</v>
+        <v>8695.7999999999993</v>
       </c>
       <c r="I23">
-        <v>1108</v>
+        <v>851.4</v>
       </c>
       <c r="J23">
-        <v>5877</v>
+        <v>3201.2</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-2388</v>
+        <v>-657.4</v>
       </c>
       <c r="N23">
-        <v>4463</v>
+        <v>2663.3</v>
       </c>
       <c r="O23">
-        <v>12521</v>
+        <v>7408</v>
       </c>
       <c r="P23">
-        <v>6580</v>
+        <v>3491.6</v>
       </c>
       <c r="Q23">
-        <v>44</v>
+        <v>42.1</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>-73</v>
+        <v>1287.8</v>
       </c>
       <c r="U23">
-        <v>1014</v>
+        <v>382.8</v>
       </c>
       <c r="V23">
-        <v>614</v>
+        <v>382.5</v>
       </c>
       <c r="W23">
-        <v>-340</v>
+        <v>-151.6</v>
       </c>
       <c r="X23">
-        <v>-441</v>
+        <v>-287.5</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>533</v>
+        <v>324.5</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>600</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="D24">
-        <v>3845</v>
+        <v>3014.3</v>
       </c>
       <c r="E24">
-        <v>1575</v>
+        <v>1380.7</v>
       </c>
       <c r="F24">
-        <v>2316</v>
+        <v>1690.8</v>
       </c>
       <c r="G24">
-        <v>4614</v>
+        <v>3119.6</v>
       </c>
       <c r="H24">
-        <v>12515</v>
+        <v>8961.2000000000007</v>
       </c>
       <c r="I24">
-        <v>1082</v>
+        <v>872.4</v>
       </c>
       <c r="J24">
-        <v>5619</v>
+        <v>3156</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>186.9</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4671</v>
+        <v>2660.2</v>
       </c>
       <c r="O24">
-        <v>12481</v>
+        <v>7365.7</v>
       </c>
       <c r="P24">
-        <v>6572</v>
+        <v>3613.4</v>
       </c>
       <c r="Q24">
-        <v>71</v>
+        <v>47.6</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>34</v>
+        <v>1595.5</v>
       </c>
       <c r="U24">
-        <v>1085</v>
+        <v>430.4</v>
       </c>
       <c r="V24">
-        <v>706</v>
+        <v>313.39999999999998</v>
       </c>
       <c r="W24">
-        <v>-364</v>
+        <v>-178.3</v>
       </c>
       <c r="X24">
-        <v>-426</v>
+        <v>-66.099999999999994</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>600</v>
+        <v>283.60000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>702</v>
+        <v>344.1</v>
       </c>
       <c r="D25">
-        <v>3867</v>
+        <v>3143.7</v>
       </c>
       <c r="E25">
-        <v>1560</v>
+        <v>1446.3</v>
       </c>
       <c r="F25">
-        <v>2335</v>
+        <v>1775.4</v>
       </c>
       <c r="G25">
-        <v>4764</v>
+        <v>3255.3</v>
       </c>
       <c r="H25">
-        <v>12623</v>
+        <v>9168.5</v>
       </c>
       <c r="I25">
-        <v>1076</v>
+        <v>915</v>
       </c>
       <c r="J25">
-        <v>5616</v>
+        <v>3126.2</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>179.8</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4655</v>
+        <v>2860.9</v>
       </c>
       <c r="O25">
-        <v>12395</v>
+        <v>7533.9</v>
       </c>
       <c r="P25">
-        <v>6523</v>
+        <v>3577.9</v>
       </c>
       <c r="Q25">
-        <v>213</v>
+        <v>72.5</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>228</v>
+        <v>1634.6</v>
       </c>
       <c r="U25">
-        <v>1298</v>
+        <v>502.9</v>
       </c>
       <c r="V25">
-        <v>997</v>
+        <v>674</v>
       </c>
       <c r="W25">
-        <v>-349</v>
+        <v>-167.5</v>
       </c>
       <c r="X25">
-        <v>-680</v>
+        <v>-381.2</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>702</v>
+        <v>344.1</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>606</v>
+        <v>401.2</v>
       </c>
       <c r="D26">
-        <v>3721</v>
+        <v>3209.1</v>
       </c>
       <c r="E26">
-        <v>1411</v>
+        <v>1523.2</v>
       </c>
       <c r="F26">
-        <v>2262</v>
+        <v>1816</v>
       </c>
       <c r="G26">
-        <v>4338</v>
+        <v>3301</v>
       </c>
       <c r="H26">
-        <v>12123</v>
+        <v>9138</v>
       </c>
       <c r="I26">
-        <v>1124</v>
+        <v>1039.7</v>
       </c>
       <c r="J26">
-        <v>6520</v>
+        <v>2720.4</v>
       </c>
       <c r="K26">
-        <v>13</v>
+        <v>174.1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3305</v>
+        <v>3469.1</v>
       </c>
       <c r="O26">
-        <v>12106</v>
+        <v>7615.3</v>
       </c>
       <c r="P26">
-        <v>6533</v>
+        <v>3671.2</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>-13.4</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>36700</v>
+        <v>34700</v>
       </c>
       <c r="T26">
-        <v>17</v>
+        <v>1522.7</v>
       </c>
       <c r="U26">
-        <v>1315</v>
+        <v>489.5</v>
       </c>
       <c r="V26">
-        <v>824</v>
+        <v>451.6</v>
       </c>
       <c r="W26">
-        <v>-327</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-686</v>
+        <v>-324.2</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>155</v>
+        <v>-1.2</v>
       </c>
       <c r="AA26">
-        <v>606</v>
+        <v>401.2</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>570</v>
+        <v>486.6</v>
       </c>
       <c r="D27">
-        <v>3762</v>
+        <v>3213.9</v>
       </c>
       <c r="E27">
-        <v>1496</v>
+        <v>1589.7</v>
       </c>
       <c r="F27">
-        <v>2283</v>
+        <v>1843.9</v>
       </c>
       <c r="G27">
-        <v>4596</v>
+        <v>3492.7</v>
       </c>
       <c r="H27">
-        <v>12448</v>
+        <v>9357.6</v>
       </c>
       <c r="I27">
-        <v>1116</v>
+        <v>1005.2</v>
       </c>
       <c r="J27">
-        <v>6467</v>
+        <v>2660.6</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-805</v>
+        <v>-714.6</v>
       </c>
       <c r="N27">
-        <v>3809</v>
+        <v>3818.9</v>
       </c>
       <c r="O27">
-        <v>12453</v>
+        <v>7939.8</v>
       </c>
       <c r="P27">
-        <v>6474</v>
+        <v>3608.7</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>-15.1</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>-5</v>
+        <v>1417.8</v>
       </c>
       <c r="U27">
-        <v>1347</v>
+        <v>474.4</v>
       </c>
       <c r="V27">
-        <v>691</v>
+        <v>487.9</v>
       </c>
       <c r="W27">
-        <v>-345</v>
+        <v>-166.8</v>
       </c>
       <c r="X27">
-        <v>-520</v>
+        <v>-483.8</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>570</v>
+        <v>486.6</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>524</v>
+        <v>415.8</v>
       </c>
       <c r="D28">
-        <v>3826</v>
+        <v>3405.4</v>
       </c>
       <c r="E28">
-        <v>1526</v>
+        <v>1666.5</v>
       </c>
       <c r="F28">
-        <v>2321</v>
+        <v>1943.1</v>
       </c>
       <c r="G28">
-        <v>4555</v>
+        <v>3703.9</v>
       </c>
       <c r="H28">
-        <v>12580</v>
+        <v>9680.6</v>
       </c>
       <c r="I28">
-        <v>1131</v>
+        <v>993.4</v>
       </c>
       <c r="J28">
-        <v>6507</v>
+        <v>2973.1</v>
       </c>
       <c r="K28">
-        <v>13</v>
+        <v>157.9</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3780</v>
+        <v>3455.7</v>
       </c>
       <c r="O28">
-        <v>12492</v>
+        <v>7909.3</v>
       </c>
       <c r="P28">
-        <v>6520</v>
+        <v>3740.9</v>
       </c>
       <c r="Q28">
-        <v>-106</v>
+        <v>72.5</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>88</v>
+        <v>1771.3</v>
       </c>
       <c r="U28">
-        <v>1241</v>
+        <v>546.9</v>
       </c>
       <c r="V28">
-        <v>614</v>
+        <v>411.1</v>
       </c>
       <c r="W28">
-        <v>-371</v>
+        <v>-197.4</v>
       </c>
       <c r="X28">
-        <v>-599</v>
+        <v>-233</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>524</v>
+        <v>415.8</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>607</v>
+        <v>420.1</v>
       </c>
       <c r="D29">
-        <v>3974</v>
+        <v>3528.2</v>
       </c>
       <c r="E29">
-        <v>1530</v>
+        <v>1758</v>
       </c>
       <c r="F29">
-        <v>2399</v>
+        <v>2021</v>
       </c>
       <c r="G29">
-        <v>4736</v>
+        <v>3935.8</v>
       </c>
       <c r="H29">
-        <v>12775</v>
+        <v>10083.700000000001</v>
       </c>
       <c r="I29">
-        <v>1164</v>
+        <v>1036</v>
       </c>
       <c r="J29">
-        <v>6522</v>
+        <v>2750.1</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3854</v>
+        <v>3785.1</v>
       </c>
       <c r="O29">
-        <v>12508</v>
+        <v>8061.6</v>
       </c>
       <c r="P29">
-        <v>6529</v>
+        <v>3608.2</v>
       </c>
       <c r="Q29">
-        <v>139</v>
+        <v>81.5</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>267</v>
+        <v>2022.1</v>
       </c>
       <c r="U29">
-        <v>1380</v>
+        <v>628.4</v>
       </c>
       <c r="V29">
-        <v>990</v>
+        <v>739.7</v>
       </c>
       <c r="W29">
-        <v>-354</v>
+        <v>-186.2</v>
       </c>
       <c r="X29">
-        <v>-648</v>
+        <v>-492</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>607</v>
+        <v>420.1</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>323</v>
+        <v>414.9</v>
       </c>
       <c r="D30">
-        <v>3892</v>
+        <v>3642.2</v>
       </c>
       <c r="E30">
-        <v>1480</v>
+        <v>1680.7</v>
       </c>
       <c r="F30">
-        <v>2352</v>
+        <v>2093.1999999999998</v>
       </c>
       <c r="G30">
-        <v>4639</v>
+        <v>3618.5</v>
       </c>
       <c r="H30">
-        <v>12676</v>
+        <v>10112</v>
       </c>
       <c r="I30">
-        <v>1212</v>
+        <v>1066.8</v>
       </c>
       <c r="J30">
-        <v>6573</v>
+        <v>3221.9</v>
       </c>
       <c r="K30">
-        <v>11</v>
+        <v>155.9</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3408</v>
+        <v>3162.7</v>
       </c>
       <c r="O30">
-        <v>12433</v>
+        <v>7715.9</v>
       </c>
       <c r="P30">
-        <v>6584</v>
+        <v>3515.9</v>
       </c>
       <c r="Q30">
-        <v>155</v>
+        <v>-199.7</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="T30">
-        <v>243</v>
+        <v>2396.1</v>
       </c>
       <c r="U30">
-        <v>1535</v>
+        <v>428.7</v>
       </c>
       <c r="V30">
-        <v>759</v>
+        <v>565</v>
       </c>
       <c r="W30">
-        <v>-335</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-683</v>
+        <v>-545.6</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>196</v>
+        <v>-11</v>
       </c>
       <c r="AA30">
-        <v>323</v>
+        <v>414.9</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>634</v>
+        <v>466.5</v>
       </c>
       <c r="D31">
-        <v>4002</v>
+        <v>3713</v>
       </c>
       <c r="E31">
-        <v>1644</v>
+        <v>1784.8</v>
       </c>
       <c r="F31">
-        <v>2414</v>
+        <v>2125.6999999999998</v>
       </c>
       <c r="G31">
-        <v>4292</v>
+        <v>4088.2</v>
       </c>
       <c r="H31">
-        <v>13144</v>
+        <v>10809.4</v>
       </c>
       <c r="I31">
-        <v>1209</v>
+        <v>1130.9000000000001</v>
       </c>
       <c r="J31">
-        <v>6561</v>
+        <v>3407.8</v>
       </c>
       <c r="K31">
-        <v>159</v>
+        <v>159.6</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2079</v>
+        <v>-1222.4000000000001</v>
       </c>
       <c r="N31">
-        <v>3980</v>
+        <v>3611.2</v>
       </c>
       <c r="O31">
-        <v>13043</v>
+        <v>8557.2000000000007</v>
       </c>
       <c r="P31">
-        <v>6726</v>
+        <v>3706.8</v>
       </c>
       <c r="Q31">
-        <v>-684</v>
+        <v>213.4</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>101</v>
+        <v>2252.1999999999998</v>
       </c>
       <c r="U31">
-        <v>851</v>
+        <v>642.1</v>
       </c>
       <c r="V31">
-        <v>616</v>
+        <v>569.9</v>
       </c>
       <c r="W31">
-        <v>-352</v>
+        <v>-185.6</v>
       </c>
       <c r="X31">
-        <v>-437</v>
+        <v>-299.5</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-38</v>
+        <v>9</v>
       </c>
       <c r="AA31">
-        <v>634</v>
+        <v>466.5</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>637</v>
+        <v>493.8</v>
       </c>
       <c r="D32">
-        <v>3886</v>
+        <v>3964.8</v>
       </c>
       <c r="E32">
-        <v>1545</v>
+        <v>1872.5</v>
       </c>
       <c r="F32">
-        <v>2306</v>
+        <v>2250.8000000000002</v>
       </c>
       <c r="G32">
-        <v>4172</v>
+        <v>4257.2</v>
       </c>
       <c r="H32">
-        <v>12650</v>
+        <v>11070.3</v>
       </c>
       <c r="I32">
-        <v>1121</v>
+        <v>1167.5999999999999</v>
       </c>
       <c r="J32">
-        <v>6533</v>
+        <v>3475.9</v>
       </c>
       <c r="K32">
-        <v>346</v>
+        <v>115.7</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3942</v>
+        <v>3320.3</v>
       </c>
       <c r="O32">
-        <v>12839</v>
+        <v>8403.7000000000007</v>
       </c>
       <c r="P32">
-        <v>6883</v>
+        <v>3730.5</v>
       </c>
       <c r="Q32">
-        <v>-18</v>
+        <v>-19.3</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-189</v>
+        <v>2666.6</v>
       </c>
       <c r="U32">
-        <v>833</v>
+        <v>622.79999999999995</v>
       </c>
       <c r="V32">
-        <v>681</v>
+        <v>466.5</v>
       </c>
       <c r="W32">
-        <v>-404</v>
+        <v>-224.1</v>
       </c>
       <c r="X32">
-        <v>-542</v>
+        <v>-373</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-39</v>
+        <v>-9</v>
       </c>
       <c r="AA32">
-        <v>637</v>
+        <v>493.8</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>523</v>
+        <v>499.7</v>
       </c>
       <c r="D33">
-        <v>3845</v>
+        <v>3988</v>
       </c>
       <c r="E33">
-        <v>1532</v>
+        <v>1761.1</v>
       </c>
       <c r="F33">
-        <v>2277</v>
+        <v>2247</v>
       </c>
       <c r="G33">
-        <v>4141</v>
+        <v>4087.2</v>
       </c>
       <c r="H33">
-        <v>12571</v>
+        <v>10555.2</v>
       </c>
       <c r="I33">
-        <v>1158</v>
+        <v>1096</v>
       </c>
       <c r="J33">
-        <v>6535</v>
+        <v>3284.4</v>
       </c>
       <c r="K33">
-        <v>85</v>
+        <v>93.4</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3747</v>
+        <v>3255.8</v>
       </c>
       <c r="O33">
-        <v>12639</v>
+        <v>8087.3</v>
       </c>
       <c r="P33">
-        <v>6622</v>
+        <v>3517.9</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>11.9</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>-68</v>
+        <v>2467.9</v>
       </c>
       <c r="U33">
-        <v>841</v>
+        <v>634.70000000000005</v>
       </c>
       <c r="V33">
-        <v>897</v>
+        <v>740.6</v>
       </c>
       <c r="W33">
-        <v>-366</v>
+        <v>-217.3</v>
       </c>
       <c r="X33">
-        <v>-722</v>
+        <v>-540.5</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-54</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>523</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>606</v>
+        <v>497</v>
       </c>
       <c r="D34">
-        <v>3811</v>
+        <v>3664</v>
       </c>
       <c r="E34">
-        <v>1400</v>
+        <v>1592</v>
       </c>
       <c r="F34">
-        <v>2265</v>
+        <v>2061</v>
       </c>
       <c r="G34">
-        <v>3793</v>
+        <v>3710</v>
       </c>
       <c r="H34">
-        <v>12161</v>
+        <v>9979</v>
       </c>
       <c r="I34">
-        <v>1222</v>
+        <v>1061</v>
       </c>
       <c r="J34">
-        <v>6362</v>
+        <v>3585</v>
       </c>
       <c r="K34">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3341</v>
+        <v>2952</v>
       </c>
       <c r="O34">
-        <v>11964</v>
+        <v>7935</v>
       </c>
       <c r="P34">
-        <v>6375</v>
+        <v>3783</v>
       </c>
       <c r="Q34">
-        <v>-115</v>
+        <v>-80</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>34500</v>
+        <v>36600</v>
       </c>
       <c r="T34">
-        <v>197</v>
+        <v>2044</v>
       </c>
       <c r="U34">
-        <v>726</v>
+        <v>555</v>
       </c>
       <c r="V34">
-        <v>862</v>
+        <v>525</v>
       </c>
       <c r="W34">
-        <v>-326</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-978</v>
+        <v>-317</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="AA34">
-        <v>606</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>560</v>
+        <v>508</v>
       </c>
       <c r="D35">
-        <v>3884</v>
+        <v>3503</v>
       </c>
       <c r="E35">
-        <v>1547</v>
+        <v>1565.4</v>
       </c>
       <c r="F35">
-        <v>2298</v>
+        <v>2013</v>
       </c>
       <c r="G35">
-        <v>4133</v>
+        <v>3816.9</v>
       </c>
       <c r="H35">
-        <v>12883</v>
+        <v>9933.2999999999993</v>
       </c>
       <c r="I35">
-        <v>1215</v>
+        <v>959</v>
       </c>
       <c r="J35">
-        <v>6659</v>
+        <v>3490.5</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>110.7</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-1774</v>
+        <v>-771</v>
       </c>
       <c r="N35">
-        <v>3865</v>
+        <v>3056.1</v>
       </c>
       <c r="O35">
-        <v>13093</v>
+        <v>7994.4</v>
       </c>
       <c r="P35">
-        <v>7195</v>
+        <v>3657</v>
       </c>
       <c r="Q35">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-210</v>
+        <v>1938.9</v>
       </c>
       <c r="U35">
-        <v>843</v>
+        <v>702.2</v>
       </c>
       <c r="V35">
-        <v>605</v>
+        <v>690</v>
       </c>
       <c r="W35">
-        <v>-366</v>
+        <v>-203</v>
       </c>
       <c r="X35">
-        <v>-392</v>
+        <v>-455</v>
       </c>
       <c r="Y35">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-27</v>
+        <v>-13</v>
       </c>
       <c r="AA35">
-        <v>560</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="D36">
-        <v>3866</v>
+        <v>3745</v>
       </c>
       <c r="E36">
-        <v>1590</v>
+        <v>1727.8</v>
       </c>
       <c r="F36">
-        <v>2305</v>
+        <v>2201</v>
       </c>
       <c r="G36">
-        <v>4255</v>
+        <v>4217.8</v>
       </c>
       <c r="H36">
-        <v>13151</v>
+        <v>10730.1</v>
       </c>
       <c r="I36">
-        <v>1209</v>
+        <v>1038</v>
       </c>
       <c r="J36">
-        <v>6640</v>
+        <v>3367.9</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>86.5</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3782</v>
+        <v>3240.2</v>
       </c>
       <c r="O36">
-        <v>13161</v>
+        <v>8031.1</v>
       </c>
       <c r="P36">
-        <v>7328</v>
+        <v>3801.8</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>-10</v>
+        <v>2699</v>
       </c>
       <c r="U36">
-        <v>863</v>
+        <v>896</v>
       </c>
       <c r="V36">
-        <v>644</v>
+        <v>521</v>
       </c>
       <c r="W36">
-        <v>-404</v>
+        <v>-251</v>
       </c>
       <c r="X36">
-        <v>-512</v>
+        <v>-210</v>
       </c>
       <c r="Y36">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-39</v>
+        <v>-7</v>
       </c>
       <c r="AA36">
-        <v>586</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D37">
-        <v>3928</v>
+        <v>3998</v>
       </c>
       <c r="E37">
-        <v>1495</v>
+        <v>1780</v>
       </c>
       <c r="F37">
-        <v>2317</v>
+        <v>2367</v>
       </c>
       <c r="G37">
-        <v>4349</v>
+        <v>4204</v>
       </c>
       <c r="H37">
-        <v>15026</v>
+        <v>11067</v>
       </c>
       <c r="I37">
-        <v>1188</v>
+        <v>1084</v>
       </c>
       <c r="J37">
-        <v>7646</v>
+        <v>2883</v>
       </c>
       <c r="K37">
-        <v>503</v>
+        <v>62</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4231</v>
+        <v>3591</v>
       </c>
       <c r="O37">
-        <v>14852</v>
+        <v>7956</v>
       </c>
       <c r="P37">
-        <v>8804</v>
+        <v>3263</v>
       </c>
       <c r="Q37">
-        <v>85</v>
+        <v>-49</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>174</v>
+        <v>3111</v>
       </c>
       <c r="U37">
-        <v>948</v>
+        <v>847</v>
       </c>
       <c r="V37">
-        <v>914</v>
+        <v>1164</v>
       </c>
       <c r="W37">
-        <v>-370</v>
+        <v>-248</v>
       </c>
       <c r="X37">
-        <v>1054</v>
+        <v>-955</v>
       </c>
       <c r="Y37">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-72</v>
+        <v>-127</v>
       </c>
       <c r="AA37">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="D38">
-        <v>4015</v>
+        <v>4081</v>
       </c>
       <c r="E38">
-        <v>1440</v>
+        <v>1626</v>
       </c>
       <c r="F38">
-        <v>2416</v>
+        <v>2427</v>
       </c>
       <c r="G38">
-        <v>4179</v>
+        <v>3810</v>
       </c>
       <c r="H38">
-        <v>15034</v>
+        <v>11134</v>
       </c>
       <c r="I38">
-        <v>1237</v>
+        <v>1172</v>
       </c>
       <c r="J38">
-        <v>7313</v>
+        <v>2821</v>
       </c>
       <c r="K38">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4038</v>
+        <v>3599</v>
       </c>
       <c r="O38">
-        <v>14476</v>
+        <v>7877</v>
       </c>
       <c r="P38">
-        <v>8483</v>
+        <v>3182</v>
       </c>
       <c r="Q38">
-        <v>-65</v>
+        <v>-247</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>34300</v>
+        <v>38100</v>
       </c>
       <c r="T38">
-        <v>558</v>
+        <v>3257</v>
       </c>
       <c r="U38">
-        <v>883</v>
+        <v>600</v>
       </c>
       <c r="V38">
-        <v>970</v>
+        <v>902</v>
       </c>
       <c r="W38">
-        <v>-333</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-1020</v>
+        <v>-650</v>
       </c>
       <c r="Y38">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>85</v>
+        <v>-142</v>
       </c>
       <c r="AA38">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>715</v>
+        <v>357</v>
       </c>
       <c r="D39">
-        <v>4097</v>
+        <v>3829</v>
       </c>
       <c r="E39">
-        <v>1551</v>
+        <v>1709</v>
       </c>
       <c r="F39">
-        <v>2469</v>
+        <v>2268</v>
       </c>
       <c r="G39">
-        <v>4248</v>
+        <v>3931</v>
       </c>
       <c r="H39">
-        <v>15070</v>
+        <v>10823</v>
       </c>
       <c r="I39">
-        <v>1216</v>
+        <v>1129</v>
       </c>
       <c r="J39">
-        <v>7336</v>
+        <v>2755</v>
       </c>
       <c r="K39">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1200</v>
+        <v>-1154</v>
       </c>
       <c r="N39">
-        <v>4443</v>
+        <v>3818</v>
       </c>
       <c r="O39">
-        <v>14729</v>
+        <v>8059</v>
       </c>
       <c r="P39">
-        <v>7846</v>
+        <v>3117</v>
       </c>
       <c r="Q39">
-        <v>-29</v>
+        <v>-39</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>341</v>
+        <v>2764</v>
       </c>
       <c r="U39">
-        <v>854</v>
+        <v>561</v>
       </c>
       <c r="V39">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="W39">
-        <v>-373</v>
+        <v>-222</v>
       </c>
       <c r="X39">
-        <v>-308</v>
+        <v>-677</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-26</v>
+        <v>-7</v>
       </c>
       <c r="AA39">
-        <v>715</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="D40">
-        <v>3897</v>
+        <v>3814</v>
       </c>
       <c r="E40">
-        <v>1231</v>
+        <v>1594</v>
       </c>
       <c r="F40">
-        <v>2369</v>
+        <v>2242</v>
       </c>
       <c r="G40">
-        <v>4212</v>
+        <v>3811</v>
       </c>
       <c r="H40">
-        <v>15141</v>
+        <v>10586</v>
       </c>
       <c r="I40">
-        <v>1189</v>
+        <v>1105</v>
       </c>
       <c r="J40">
-        <v>6892</v>
+        <v>3331</v>
       </c>
       <c r="K40">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4580</v>
+        <v>2955</v>
       </c>
       <c r="O40">
-        <v>14409</v>
+        <v>7782</v>
       </c>
       <c r="P40">
-        <v>7400</v>
+        <v>3373</v>
       </c>
       <c r="Q40">
-        <v>143</v>
+        <v>-6</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>732</v>
+        <v>2804</v>
       </c>
       <c r="U40">
-        <v>997</v>
+        <v>555</v>
       </c>
       <c r="V40">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="W40">
-        <v>-411</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-833</v>
+        <v>-437</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="AA40">
-        <v>635</v>
+        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>698</v>
+        <v>619</v>
       </c>
       <c r="D41">
-        <v>4153</v>
+        <v>3943</v>
       </c>
       <c r="E41">
-        <v>1292</v>
+        <v>1690</v>
       </c>
       <c r="F41">
-        <v>2540</v>
+        <v>2344</v>
       </c>
       <c r="G41">
-        <v>4367</v>
+        <v>4091</v>
       </c>
       <c r="H41">
-        <v>15466</v>
+        <v>11390</v>
       </c>
       <c r="I41">
-        <v>1225</v>
+        <v>1096</v>
       </c>
       <c r="J41">
-        <v>6975</v>
+        <v>3329</v>
       </c>
       <c r="K41">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4481</v>
+        <v>3176</v>
       </c>
       <c r="O41">
-        <v>14393</v>
+        <v>8544</v>
       </c>
       <c r="P41">
-        <v>7240</v>
+        <v>3388</v>
       </c>
       <c r="Q41">
-        <v>-8</v>
+        <v>99</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1073</v>
+        <v>2846</v>
       </c>
       <c r="U41">
-        <v>989</v>
+        <v>654</v>
       </c>
       <c r="V41">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="W41">
-        <v>-378</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-827</v>
+        <v>-631</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-61</v>
+        <v>-104</v>
       </c>
       <c r="AA41">
-        <v>698</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>624</v>
+      </c>
+      <c r="D42">
+        <v>3978</v>
+      </c>
+      <c r="E42">
+        <v>1610</v>
+      </c>
+      <c r="F42">
+        <v>2350</v>
+      </c>
+      <c r="G42">
+        <v>3730</v>
+      </c>
+      <c r="H42">
+        <v>11172</v>
+      </c>
+      <c r="I42">
+        <v>1165</v>
+      </c>
+      <c r="J42">
+        <v>2822</v>
+      </c>
+      <c r="K42">
+        <v>48</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3728</v>
+      </c>
+      <c r="O42">
+        <v>8355</v>
+      </c>
+      <c r="P42">
+        <v>3431</v>
+      </c>
+      <c r="Q42">
+        <v>-164</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>39200</v>
+      </c>
+      <c r="T42">
+        <v>2817</v>
+      </c>
+      <c r="U42">
+        <v>490</v>
+      </c>
+      <c r="V42">
+        <v>968</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-879</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-24</v>
+      </c>
+      <c r="AA42">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>576</v>
+      </c>
+      <c r="D43">
+        <v>3994</v>
+      </c>
+      <c r="E43">
+        <v>1787</v>
+      </c>
+      <c r="F43">
+        <v>2331</v>
+      </c>
+      <c r="G43">
+        <v>4274</v>
+      </c>
+      <c r="H43">
+        <v>11931</v>
+      </c>
+      <c r="I43">
+        <v>1181</v>
+      </c>
+      <c r="J43">
+        <v>3166</v>
+      </c>
+      <c r="K43">
+        <v>41</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1243</v>
+      </c>
+      <c r="N43">
+        <v>4282</v>
+      </c>
+      <c r="O43">
+        <v>9340</v>
+      </c>
+      <c r="P43">
+        <v>3804</v>
+      </c>
+      <c r="Q43">
+        <v>196</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2591</v>
+      </c>
+      <c r="U43">
+        <v>686</v>
+      </c>
+      <c r="V43">
+        <v>680</v>
+      </c>
+      <c r="W43">
+        <v>-261</v>
+      </c>
+      <c r="X43">
+        <v>-417</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-13</v>
+      </c>
+      <c r="AA43">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>622</v>
+      </c>
+      <c r="D44">
+        <v>4185</v>
+      </c>
+      <c r="E44">
+        <v>1819</v>
+      </c>
+      <c r="F44">
+        <v>2404</v>
+      </c>
+      <c r="G44">
+        <v>4470</v>
+      </c>
+      <c r="H44">
+        <v>13244</v>
+      </c>
+      <c r="I44">
+        <v>1236</v>
+      </c>
+      <c r="J44">
+        <v>4022</v>
+      </c>
+      <c r="K44">
+        <v>38</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>4249</v>
+      </c>
+      <c r="O44">
+        <v>10100</v>
+      </c>
+      <c r="P44">
+        <v>5013</v>
+      </c>
+      <c r="Q44">
+        <v>53</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3144</v>
+      </c>
+      <c r="U44">
+        <v>739</v>
+      </c>
+      <c r="V44">
+        <v>474</v>
+      </c>
+      <c r="W44">
+        <v>-307</v>
+      </c>
+      <c r="X44">
+        <v>616</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>104</v>
+      </c>
+      <c r="AA44">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>643</v>
+      </c>
+      <c r="D45">
+        <v>4383</v>
+      </c>
+      <c r="E45">
+        <v>1677</v>
+      </c>
+      <c r="F45">
+        <v>2490</v>
+      </c>
+      <c r="G45">
+        <v>4443</v>
+      </c>
+      <c r="H45">
+        <v>12768</v>
+      </c>
+      <c r="I45">
+        <v>1150</v>
+      </c>
+      <c r="J45">
+        <v>3768</v>
+      </c>
+      <c r="K45">
+        <v>67</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4317</v>
+      </c>
+      <c r="O45">
+        <v>9898</v>
+      </c>
+      <c r="P45">
+        <v>4756</v>
+      </c>
+      <c r="Q45">
+        <v>206</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2870</v>
+      </c>
+      <c r="U45">
+        <v>945</v>
+      </c>
+      <c r="V45">
+        <v>903</v>
+      </c>
+      <c r="W45">
+        <v>-282</v>
+      </c>
+      <c r="X45">
+        <v>-765</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-26</v>
+      </c>
+      <c r="AA45">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>590</v>
+      </c>
+      <c r="D46">
+        <v>4172</v>
+      </c>
+      <c r="E46">
+        <v>1675</v>
+      </c>
+      <c r="F46">
+        <v>2409</v>
+      </c>
+      <c r="G46">
+        <v>4402</v>
+      </c>
+      <c r="H46">
+        <v>12724</v>
+      </c>
+      <c r="I46">
+        <v>1244</v>
+      </c>
+      <c r="J46">
+        <v>4432</v>
+      </c>
+      <c r="K46">
+        <v>34</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3716</v>
+      </c>
+      <c r="O46">
+        <v>10183</v>
+      </c>
+      <c r="P46">
+        <v>4812</v>
+      </c>
+      <c r="Q46">
+        <v>-67</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>38600</v>
+      </c>
+      <c r="T46">
+        <v>2541</v>
+      </c>
+      <c r="U46">
+        <v>878</v>
+      </c>
+      <c r="V46">
+        <v>839</v>
+      </c>
+      <c r="W46">
+        <v>-261</v>
+      </c>
+      <c r="X46">
+        <v>-676</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>2</v>
+      </c>
+      <c r="AA46">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>593</v>
+      </c>
+      <c r="D47">
+        <v>4200</v>
+      </c>
+      <c r="E47">
+        <v>1827</v>
+      </c>
+      <c r="F47">
+        <v>2439</v>
+      </c>
+      <c r="G47">
+        <v>4849</v>
+      </c>
+      <c r="H47">
+        <v>13254</v>
+      </c>
+      <c r="I47">
+        <v>1187</v>
+      </c>
+      <c r="J47">
+        <v>4595</v>
+      </c>
+      <c r="K47">
+        <v>38</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-1013</v>
+      </c>
+      <c r="N47">
+        <v>4107</v>
+      </c>
+      <c r="O47">
+        <v>10758</v>
+      </c>
+      <c r="P47">
+        <v>4967</v>
+      </c>
+      <c r="Q47">
+        <v>166</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2496</v>
+      </c>
+      <c r="U47">
+        <v>1044</v>
+      </c>
+      <c r="V47">
+        <v>662</v>
+      </c>
+      <c r="W47">
+        <v>-278</v>
+      </c>
+      <c r="X47">
+        <v>-465</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-19</v>
+      </c>
+      <c r="AA47">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>627</v>
+      </c>
+      <c r="D48">
+        <v>4267</v>
+      </c>
+      <c r="E48">
+        <v>1785</v>
+      </c>
+      <c r="F48">
+        <v>2463</v>
+      </c>
+      <c r="G48">
+        <v>4835</v>
+      </c>
+      <c r="H48">
+        <v>13153</v>
+      </c>
+      <c r="I48">
+        <v>1226</v>
+      </c>
+      <c r="J48">
+        <v>5068</v>
+      </c>
+      <c r="K48">
+        <v>43</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3566</v>
+      </c>
+      <c r="O48">
+        <v>10643</v>
+      </c>
+      <c r="P48">
+        <v>5363</v>
+      </c>
+      <c r="Q48">
+        <v>-49</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2510</v>
+      </c>
+      <c r="U48">
+        <v>995</v>
+      </c>
+      <c r="V48">
+        <v>531</v>
+      </c>
+      <c r="W48">
+        <v>-297</v>
+      </c>
+      <c r="X48">
+        <v>-265</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-129</v>
+      </c>
+      <c r="AA48">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>654</v>
+      </c>
+      <c r="D49">
+        <v>4332</v>
+      </c>
+      <c r="E49">
+        <v>1857</v>
+      </c>
+      <c r="F49">
+        <v>2530</v>
+      </c>
+      <c r="G49">
+        <v>4761</v>
+      </c>
+      <c r="H49">
+        <v>13424</v>
+      </c>
+      <c r="I49">
+        <v>1181</v>
+      </c>
+      <c r="J49">
+        <v>4943</v>
+      </c>
+      <c r="K49">
+        <v>53</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3700</v>
+      </c>
+      <c r="O49">
+        <v>10727</v>
+      </c>
+      <c r="P49">
+        <v>5246</v>
+      </c>
+      <c r="Q49">
+        <v>-86</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>38600</v>
+      </c>
+      <c r="T49">
+        <v>2697</v>
+      </c>
+      <c r="U49">
+        <v>909</v>
+      </c>
+      <c r="V49">
+        <v>940</v>
+      </c>
+      <c r="W49">
+        <v>-376</v>
+      </c>
+      <c r="X49">
+        <v>-728</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-233</v>
+      </c>
+      <c r="AA49">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>598</v>
+      </c>
+      <c r="D50">
+        <v>4286</v>
+      </c>
+      <c r="E50">
+        <v>1668</v>
+      </c>
+      <c r="F50">
+        <v>2507</v>
+      </c>
+      <c r="G50">
+        <v>4556</v>
+      </c>
+      <c r="H50">
+        <v>13394</v>
+      </c>
+      <c r="I50">
+        <v>1290</v>
+      </c>
+      <c r="J50">
+        <v>4926</v>
+      </c>
+      <c r="K50">
+        <v>54</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3736</v>
+      </c>
+      <c r="O50">
+        <v>11004</v>
+      </c>
+      <c r="P50">
+        <v>5230</v>
+      </c>
+      <c r="Q50">
+        <v>-25</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>37700</v>
+      </c>
+      <c r="T50">
+        <v>2390</v>
+      </c>
+      <c r="U50">
+        <v>884</v>
+      </c>
+      <c r="V50">
+        <v>1063</v>
+      </c>
+      <c r="W50">
+        <v>-217</v>
+      </c>
+      <c r="X50">
+        <v>-843</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-17</v>
+      </c>
+      <c r="AA50">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>460</v>
+      </c>
+      <c r="D51">
+        <v>4315</v>
+      </c>
+      <c r="E51">
+        <v>1808</v>
+      </c>
+      <c r="F51">
+        <v>2523</v>
+      </c>
+      <c r="G51">
+        <v>4828</v>
+      </c>
+      <c r="H51">
+        <v>13533</v>
+      </c>
+      <c r="I51">
+        <v>1237</v>
+      </c>
+      <c r="J51">
+        <v>5095</v>
+      </c>
+      <c r="K51">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-1436</v>
+      </c>
+      <c r="N51">
+        <v>4091</v>
+      </c>
+      <c r="O51">
+        <v>11514</v>
+      </c>
+      <c r="P51">
+        <v>5357</v>
+      </c>
+      <c r="Q51">
+        <v>48</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2019</v>
+      </c>
+      <c r="U51">
+        <v>932</v>
+      </c>
+      <c r="V51">
+        <v>777</v>
+      </c>
+      <c r="W51">
+        <v>-290</v>
+      </c>
+      <c r="X51">
+        <v>-462</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-145</v>
+      </c>
+      <c r="AA51">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>561</v>
+      </c>
+      <c r="D52">
+        <v>4346</v>
+      </c>
+      <c r="E52">
+        <v>1778</v>
+      </c>
+      <c r="F52">
+        <v>2544</v>
+      </c>
+      <c r="G52">
+        <v>4867</v>
+      </c>
+      <c r="H52">
+        <v>13487</v>
+      </c>
+      <c r="I52">
+        <v>1279</v>
+      </c>
+      <c r="J52">
+        <v>5032</v>
+      </c>
+      <c r="K52">
+        <v>21</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>4444</v>
+      </c>
+      <c r="O52">
+        <v>11683</v>
+      </c>
+      <c r="P52">
+        <v>5628</v>
+      </c>
+      <c r="Q52">
+        <v>-48</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1804</v>
+      </c>
+      <c r="U52">
+        <v>884</v>
+      </c>
+      <c r="V52">
+        <v>548</v>
+      </c>
+      <c r="W52">
+        <v>-335</v>
+      </c>
+      <c r="X52">
+        <v>-384</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-9</v>
+      </c>
+      <c r="AA52">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>656</v>
+      </c>
+      <c r="D53">
+        <v>4398</v>
+      </c>
+      <c r="E53">
+        <v>1737</v>
+      </c>
+      <c r="F53">
+        <v>2593</v>
+      </c>
+      <c r="G53">
+        <v>4600</v>
+      </c>
+      <c r="H53">
+        <v>13439</v>
+      </c>
+      <c r="I53">
+        <v>1234</v>
+      </c>
+      <c r="J53">
+        <v>4677</v>
+      </c>
+      <c r="K53">
+        <v>19</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4491</v>
+      </c>
+      <c r="O53">
+        <v>11432</v>
+      </c>
+      <c r="P53">
+        <v>5284</v>
+      </c>
+      <c r="Q53">
+        <v>-163</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2007</v>
+      </c>
+      <c r="U53">
+        <v>721</v>
+      </c>
+      <c r="V53">
+        <v>1040</v>
+      </c>
+      <c r="W53">
+        <v>-405</v>
+      </c>
+      <c r="X53">
+        <v>-964</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-59</v>
+      </c>
+      <c r="AA53">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>564</v>
+      </c>
+      <c r="D54">
+        <v>4361</v>
+      </c>
+      <c r="E54">
+        <v>1636</v>
+      </c>
+      <c r="F54">
+        <v>2573</v>
+      </c>
+      <c r="G54">
+        <v>4931</v>
+      </c>
+      <c r="H54">
+        <v>13985</v>
+      </c>
+      <c r="I54">
+        <v>1343</v>
+      </c>
+      <c r="J54">
+        <v>4750</v>
+      </c>
+      <c r="K54">
+        <v>13</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4579</v>
+      </c>
+      <c r="O54">
+        <v>11449</v>
+      </c>
+      <c r="P54">
+        <v>5658</v>
+      </c>
+      <c r="Q54">
+        <v>241</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>37400</v>
+      </c>
+      <c r="T54">
+        <v>2536</v>
+      </c>
+      <c r="U54">
+        <v>962</v>
+      </c>
+      <c r="V54">
+        <v>839</v>
+      </c>
+      <c r="W54">
+        <v>-212</v>
+      </c>
+      <c r="X54">
+        <v>-332</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-25</v>
+      </c>
+      <c r="AA54">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>388</v>
+      </c>
+      <c r="D55">
+        <v>4325</v>
+      </c>
+      <c r="E55">
+        <v>1670</v>
+      </c>
+      <c r="F55">
+        <v>2534</v>
+      </c>
+      <c r="G55">
+        <v>5677</v>
+      </c>
+      <c r="H55">
+        <v>14432</v>
+      </c>
+      <c r="I55">
+        <v>1264</v>
+      </c>
+      <c r="J55">
+        <v>5746</v>
+      </c>
+      <c r="K55">
+        <v>24</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1938</v>
+      </c>
+      <c r="N55">
+        <v>4702</v>
+      </c>
+      <c r="O55">
+        <v>12532</v>
+      </c>
+      <c r="P55">
+        <v>6666</v>
+      </c>
+      <c r="Q55">
+        <v>833</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1900</v>
+      </c>
+      <c r="U55">
+        <v>1795</v>
+      </c>
+      <c r="V55">
+        <v>820</v>
+      </c>
+      <c r="W55">
+        <v>-316</v>
+      </c>
+      <c r="X55">
+        <v>303</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-77</v>
+      </c>
+      <c r="AA55">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>622</v>
+      </c>
+      <c r="D56">
+        <v>4352</v>
+      </c>
+      <c r="E56">
+        <v>1803</v>
+      </c>
+      <c r="F56">
+        <v>2558</v>
+      </c>
+      <c r="G56">
+        <v>5174</v>
+      </c>
+      <c r="H56">
+        <v>13988</v>
+      </c>
+      <c r="I56">
+        <v>1251</v>
+      </c>
+      <c r="J56">
+        <v>5743</v>
+      </c>
+      <c r="K56">
+        <v>20</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>4061</v>
+      </c>
+      <c r="O56">
+        <v>11917</v>
+      </c>
+      <c r="P56">
+        <v>6063</v>
+      </c>
+      <c r="Q56">
+        <v>-634</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2071</v>
+      </c>
+      <c r="U56">
+        <v>1161</v>
+      </c>
+      <c r="V56">
+        <v>569</v>
+      </c>
+      <c r="W56">
+        <v>-346</v>
+      </c>
+      <c r="X56">
+        <v>-1133</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>89</v>
+      </c>
+      <c r="AA56">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>542</v>
+      </c>
+      <c r="D57">
+        <v>4379</v>
+      </c>
+      <c r="E57">
+        <v>1747</v>
+      </c>
+      <c r="F57">
+        <v>2565</v>
+      </c>
+      <c r="G57">
+        <v>5181</v>
+      </c>
+      <c r="H57">
+        <v>13685</v>
+      </c>
+      <c r="I57">
+        <v>1215</v>
+      </c>
+      <c r="J57">
+        <v>5447</v>
+      </c>
+      <c r="K57">
+        <v>14</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4412</v>
+      </c>
+      <c r="O57">
+        <v>11939</v>
+      </c>
+      <c r="P57">
+        <v>6061</v>
+      </c>
+      <c r="Q57">
+        <v>194</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1746</v>
+      </c>
+      <c r="U57">
+        <v>1355</v>
+      </c>
+      <c r="V57">
+        <v>1003</v>
+      </c>
+      <c r="W57">
+        <v>-328</v>
+      </c>
+      <c r="X57">
+        <v>-607</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>33</v>
+      </c>
+      <c r="AA57">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>628</v>
+      </c>
+      <c r="D58">
+        <v>4221</v>
+      </c>
+      <c r="E58">
+        <v>1552</v>
+      </c>
+      <c r="F58">
+        <v>2481</v>
+      </c>
+      <c r="G58">
+        <v>4863</v>
+      </c>
+      <c r="H58">
+        <v>13459</v>
+      </c>
+      <c r="I58">
+        <v>1231</v>
+      </c>
+      <c r="J58">
+        <v>5646</v>
+      </c>
+      <c r="K58">
+        <v>16</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3946</v>
+      </c>
+      <c r="O58">
+        <v>12074</v>
+      </c>
+      <c r="P58">
+        <v>6150</v>
+      </c>
+      <c r="Q58">
+        <v>-266</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>37700</v>
+      </c>
+      <c r="T58">
+        <v>1385</v>
+      </c>
+      <c r="U58">
+        <v>1089</v>
+      </c>
+      <c r="V58">
+        <v>906</v>
+      </c>
+      <c r="W58">
+        <v>-310</v>
+      </c>
+      <c r="X58">
+        <v>-733</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-102</v>
+      </c>
+      <c r="AA58">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>542</v>
+      </c>
+      <c r="D59">
+        <v>4070</v>
+      </c>
+      <c r="E59">
+        <v>1611</v>
+      </c>
+      <c r="F59">
+        <v>2396</v>
+      </c>
+      <c r="G59">
+        <v>4700</v>
+      </c>
+      <c r="H59">
+        <v>13156</v>
+      </c>
+      <c r="I59">
+        <v>1167</v>
+      </c>
+      <c r="J59">
+        <v>5622</v>
+      </c>
+      <c r="K59">
+        <v>18</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-2171</v>
+      </c>
+      <c r="N59">
+        <v>4323</v>
+      </c>
+      <c r="O59">
+        <v>12417</v>
+      </c>
+      <c r="P59">
+        <v>6128</v>
+      </c>
+      <c r="Q59">
+        <v>-230</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>739</v>
+      </c>
+      <c r="U59">
+        <v>859</v>
+      </c>
+      <c r="V59">
+        <v>727</v>
+      </c>
+      <c r="W59">
+        <v>-329</v>
+      </c>
+      <c r="X59">
+        <v>-641</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-142</v>
+      </c>
+      <c r="AA59">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>574</v>
+      </c>
+      <c r="D60">
+        <v>4066</v>
+      </c>
+      <c r="E60">
+        <v>1691</v>
+      </c>
+      <c r="F60">
+        <v>2371</v>
+      </c>
+      <c r="G60">
+        <v>4988</v>
+      </c>
+      <c r="H60">
+        <v>13660</v>
+      </c>
+      <c r="I60">
+        <v>1169</v>
+      </c>
+      <c r="J60">
+        <v>6186</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4206</v>
+      </c>
+      <c r="O60">
+        <v>12903</v>
+      </c>
+      <c r="P60">
+        <v>6683</v>
+      </c>
+      <c r="Q60">
+        <v>200</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>757</v>
+      </c>
+      <c r="U60">
+        <v>1059</v>
+      </c>
+      <c r="V60">
+        <v>496</v>
+      </c>
+      <c r="W60">
+        <v>-360</v>
+      </c>
+      <c r="X60">
+        <v>-115</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-28</v>
+      </c>
+      <c r="AA60">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>726</v>
+      </c>
+      <c r="D61">
+        <v>3999</v>
+      </c>
+      <c r="E61">
+        <v>1561</v>
+      </c>
+      <c r="F61">
+        <v>2350</v>
+      </c>
+      <c r="G61">
+        <v>5089</v>
+      </c>
+      <c r="H61">
+        <v>13563</v>
+      </c>
+      <c r="I61">
+        <v>1109</v>
+      </c>
+      <c r="J61">
+        <v>6554</v>
+      </c>
+      <c r="K61">
+        <v>10</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3937</v>
+      </c>
+      <c r="O61">
+        <v>12973</v>
+      </c>
+      <c r="P61">
+        <v>6790</v>
+      </c>
+      <c r="Q61">
+        <v>386</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>590</v>
+      </c>
+      <c r="U61">
+        <v>1445</v>
+      </c>
+      <c r="V61">
+        <v>885</v>
+      </c>
+      <c r="W61">
+        <v>-344</v>
+      </c>
+      <c r="X61">
+        <v>-570</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>69</v>
+      </c>
+      <c r="AA61">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-458</v>
+      </c>
+      <c r="D62">
+        <v>3899</v>
+      </c>
+      <c r="E62">
+        <v>1427</v>
+      </c>
+      <c r="F62">
+        <v>2302</v>
+      </c>
+      <c r="G62">
+        <v>4384</v>
+      </c>
+      <c r="H62">
+        <v>11935</v>
+      </c>
+      <c r="I62">
+        <v>1110</v>
+      </c>
+      <c r="J62">
+        <v>6246</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3534</v>
+      </c>
+      <c r="O62">
+        <v>11979</v>
+      </c>
+      <c r="P62">
+        <v>6548</v>
+      </c>
+      <c r="Q62">
+        <v>-475</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>37900</v>
+      </c>
+      <c r="T62">
+        <v>-44</v>
+      </c>
+      <c r="U62">
+        <v>970</v>
+      </c>
+      <c r="V62">
+        <v>841</v>
+      </c>
+      <c r="W62">
+        <v>-322</v>
+      </c>
+      <c r="X62">
+        <v>-950</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-42</v>
+      </c>
+      <c r="AA62">
+        <v>-458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>533</v>
+      </c>
+      <c r="D63">
+        <v>3762</v>
+      </c>
+      <c r="E63">
+        <v>1546</v>
+      </c>
+      <c r="F63">
+        <v>2256</v>
+      </c>
+      <c r="G63">
+        <v>4490</v>
+      </c>
+      <c r="H63">
+        <v>12448</v>
+      </c>
+      <c r="I63">
+        <v>1108</v>
+      </c>
+      <c r="J63">
+        <v>5877</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-2388</v>
+      </c>
+      <c r="N63">
+        <v>4463</v>
+      </c>
+      <c r="O63">
+        <v>12521</v>
+      </c>
+      <c r="P63">
+        <v>6580</v>
+      </c>
+      <c r="Q63">
+        <v>44</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>-73</v>
+      </c>
+      <c r="U63">
+        <v>1014</v>
+      </c>
+      <c r="V63">
+        <v>614</v>
+      </c>
+      <c r="W63">
+        <v>-340</v>
+      </c>
+      <c r="X63">
+        <v>-441</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-30</v>
+      </c>
+      <c r="AA63">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>600</v>
+      </c>
+      <c r="D64">
+        <v>3845</v>
+      </c>
+      <c r="E64">
+        <v>1575</v>
+      </c>
+      <c r="F64">
+        <v>2316</v>
+      </c>
+      <c r="G64">
+        <v>4614</v>
+      </c>
+      <c r="H64">
+        <v>12515</v>
+      </c>
+      <c r="I64">
+        <v>1082</v>
+      </c>
+      <c r="J64">
+        <v>5619</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4671</v>
+      </c>
+      <c r="O64">
+        <v>12481</v>
+      </c>
+      <c r="P64">
+        <v>6572</v>
+      </c>
+      <c r="Q64">
+        <v>71</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>34</v>
+      </c>
+      <c r="U64">
+        <v>1085</v>
+      </c>
+      <c r="V64">
+        <v>706</v>
+      </c>
+      <c r="W64">
+        <v>-364</v>
+      </c>
+      <c r="X64">
+        <v>-426</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-66</v>
+      </c>
+      <c r="AA64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>702</v>
+      </c>
+      <c r="D65">
+        <v>3867</v>
+      </c>
+      <c r="E65">
+        <v>1560</v>
+      </c>
+      <c r="F65">
+        <v>2335</v>
+      </c>
+      <c r="G65">
+        <v>4764</v>
+      </c>
+      <c r="H65">
+        <v>12623</v>
+      </c>
+      <c r="I65">
+        <v>1076</v>
+      </c>
+      <c r="J65">
+        <v>5616</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4655</v>
+      </c>
+      <c r="O65">
+        <v>12395</v>
+      </c>
+      <c r="P65">
+        <v>6523</v>
+      </c>
+      <c r="Q65">
+        <v>213</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>228</v>
+      </c>
+      <c r="U65">
+        <v>1298</v>
+      </c>
+      <c r="V65">
+        <v>997</v>
+      </c>
+      <c r="W65">
+        <v>-349</v>
+      </c>
+      <c r="X65">
+        <v>-680</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-17</v>
+      </c>
+      <c r="AA65">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>606</v>
+      </c>
+      <c r="D66">
+        <v>3721</v>
+      </c>
+      <c r="E66">
+        <v>1411</v>
+      </c>
+      <c r="F66">
+        <v>2262</v>
+      </c>
+      <c r="G66">
+        <v>4338</v>
+      </c>
+      <c r="H66">
+        <v>12123</v>
+      </c>
+      <c r="I66">
+        <v>1124</v>
+      </c>
+      <c r="J66">
+        <v>6520</v>
+      </c>
+      <c r="K66">
+        <v>13</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3305</v>
+      </c>
+      <c r="O66">
+        <v>12106</v>
+      </c>
+      <c r="P66">
+        <v>6533</v>
+      </c>
+      <c r="Q66">
+        <v>17</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>36700</v>
+      </c>
+      <c r="T66">
+        <v>17</v>
+      </c>
+      <c r="U66">
+        <v>1315</v>
+      </c>
+      <c r="V66">
+        <v>824</v>
+      </c>
+      <c r="W66">
+        <v>-327</v>
+      </c>
+      <c r="X66">
+        <v>-686</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>155</v>
+      </c>
+      <c r="AA66">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>570</v>
+      </c>
+      <c r="D67">
+        <v>3762</v>
+      </c>
+      <c r="E67">
+        <v>1496</v>
+      </c>
+      <c r="F67">
+        <v>2283</v>
+      </c>
+      <c r="G67">
+        <v>4596</v>
+      </c>
+      <c r="H67">
+        <v>12448</v>
+      </c>
+      <c r="I67">
+        <v>1116</v>
+      </c>
+      <c r="J67">
+        <v>6467</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-805</v>
+      </c>
+      <c r="N67">
+        <v>3809</v>
+      </c>
+      <c r="O67">
+        <v>12453</v>
+      </c>
+      <c r="P67">
+        <v>6474</v>
+      </c>
+      <c r="Q67">
+        <v>32</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>-5</v>
+      </c>
+      <c r="U67">
+        <v>1347</v>
+      </c>
+      <c r="V67">
+        <v>691</v>
+      </c>
+      <c r="W67">
+        <v>-345</v>
+      </c>
+      <c r="X67">
+        <v>-520</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-37</v>
+      </c>
+      <c r="AA67">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>524</v>
+      </c>
+      <c r="D68">
+        <v>3826</v>
+      </c>
+      <c r="E68">
+        <v>1526</v>
+      </c>
+      <c r="F68">
+        <v>2321</v>
+      </c>
+      <c r="G68">
+        <v>4555</v>
+      </c>
+      <c r="H68">
+        <v>12580</v>
+      </c>
+      <c r="I68">
+        <v>1131</v>
+      </c>
+      <c r="J68">
+        <v>6507</v>
+      </c>
+      <c r="K68">
+        <v>13</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3780</v>
+      </c>
+      <c r="O68">
+        <v>12492</v>
+      </c>
+      <c r="P68">
+        <v>6520</v>
+      </c>
+      <c r="Q68">
+        <v>-106</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>88</v>
+      </c>
+      <c r="U68">
+        <v>1241</v>
+      </c>
+      <c r="V68">
+        <v>614</v>
+      </c>
+      <c r="W68">
+        <v>-371</v>
+      </c>
+      <c r="X68">
+        <v>-599</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-50</v>
+      </c>
+      <c r="AA68">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>607</v>
+      </c>
+      <c r="D69">
+        <v>3974</v>
+      </c>
+      <c r="E69">
+        <v>1530</v>
+      </c>
+      <c r="F69">
+        <v>2399</v>
+      </c>
+      <c r="G69">
+        <v>4736</v>
+      </c>
+      <c r="H69">
+        <v>12775</v>
+      </c>
+      <c r="I69">
+        <v>1164</v>
+      </c>
+      <c r="J69">
+        <v>6522</v>
+      </c>
+      <c r="K69">
+        <v>7</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3854</v>
+      </c>
+      <c r="O69">
+        <v>12508</v>
+      </c>
+      <c r="P69">
+        <v>6529</v>
+      </c>
+      <c r="Q69">
+        <v>139</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>267</v>
+      </c>
+      <c r="U69">
+        <v>1380</v>
+      </c>
+      <c r="V69">
+        <v>990</v>
+      </c>
+      <c r="W69">
+        <v>-354</v>
+      </c>
+      <c r="X69">
+        <v>-648</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-65</v>
+      </c>
+      <c r="AA69">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>323</v>
+      </c>
+      <c r="D70">
+        <v>3892</v>
+      </c>
+      <c r="E70">
+        <v>1480</v>
+      </c>
+      <c r="F70">
+        <v>2352</v>
+      </c>
+      <c r="G70">
+        <v>4639</v>
+      </c>
+      <c r="H70">
+        <v>12676</v>
+      </c>
+      <c r="I70">
+        <v>1212</v>
+      </c>
+      <c r="J70">
+        <v>6573</v>
+      </c>
+      <c r="K70">
+        <v>11</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3408</v>
+      </c>
+      <c r="O70">
+        <v>12433</v>
+      </c>
+      <c r="P70">
+        <v>6584</v>
+      </c>
+      <c r="Q70">
+        <v>155</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>35900</v>
+      </c>
+      <c r="T70">
+        <v>243</v>
+      </c>
+      <c r="U70">
+        <v>1535</v>
+      </c>
+      <c r="V70">
+        <v>759</v>
+      </c>
+      <c r="W70">
+        <v>-335</v>
+      </c>
+      <c r="X70">
+        <v>-683</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>196</v>
+      </c>
+      <c r="AA70">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>634</v>
+      </c>
+      <c r="D71">
+        <v>4002</v>
+      </c>
+      <c r="E71">
+        <v>1644</v>
+      </c>
+      <c r="F71">
+        <v>2414</v>
+      </c>
+      <c r="G71">
+        <v>4292</v>
+      </c>
+      <c r="H71">
+        <v>13144</v>
+      </c>
+      <c r="I71">
+        <v>1209</v>
+      </c>
+      <c r="J71">
+        <v>6561</v>
+      </c>
+      <c r="K71">
+        <v>159</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-2079</v>
+      </c>
+      <c r="N71">
+        <v>3980</v>
+      </c>
+      <c r="O71">
+        <v>13043</v>
+      </c>
+      <c r="P71">
+        <v>6726</v>
+      </c>
+      <c r="Q71">
+        <v>-684</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>101</v>
+      </c>
+      <c r="U71">
+        <v>851</v>
+      </c>
+      <c r="V71">
+        <v>616</v>
+      </c>
+      <c r="W71">
+        <v>-352</v>
+      </c>
+      <c r="X71">
+        <v>-437</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-38</v>
+      </c>
+      <c r="AA71">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>637</v>
+      </c>
+      <c r="D72">
+        <v>3886</v>
+      </c>
+      <c r="E72">
+        <v>1545</v>
+      </c>
+      <c r="F72">
+        <v>2306</v>
+      </c>
+      <c r="G72">
+        <v>4172</v>
+      </c>
+      <c r="H72">
+        <v>12650</v>
+      </c>
+      <c r="I72">
+        <v>1121</v>
+      </c>
+      <c r="J72">
+        <v>6533</v>
+      </c>
+      <c r="K72">
+        <v>346</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3942</v>
+      </c>
+      <c r="O72">
+        <v>12839</v>
+      </c>
+      <c r="P72">
+        <v>6883</v>
+      </c>
+      <c r="Q72">
+        <v>-18</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-189</v>
+      </c>
+      <c r="U72">
+        <v>833</v>
+      </c>
+      <c r="V72">
+        <v>681</v>
+      </c>
+      <c r="W72">
+        <v>-404</v>
+      </c>
+      <c r="X72">
+        <v>-542</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-39</v>
+      </c>
+      <c r="AA72">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>523</v>
+      </c>
+      <c r="D73">
+        <v>3845</v>
+      </c>
+      <c r="E73">
+        <v>1532</v>
+      </c>
+      <c r="F73">
+        <v>2277</v>
+      </c>
+      <c r="G73">
+        <v>4141</v>
+      </c>
+      <c r="H73">
+        <v>12571</v>
+      </c>
+      <c r="I73">
+        <v>1158</v>
+      </c>
+      <c r="J73">
+        <v>6535</v>
+      </c>
+      <c r="K73">
+        <v>85</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3747</v>
+      </c>
+      <c r="O73">
+        <v>12639</v>
+      </c>
+      <c r="P73">
+        <v>6622</v>
+      </c>
+      <c r="Q73">
+        <v>8</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>-68</v>
+      </c>
+      <c r="U73">
+        <v>841</v>
+      </c>
+      <c r="V73">
+        <v>897</v>
+      </c>
+      <c r="W73">
+        <v>-366</v>
+      </c>
+      <c r="X73">
+        <v>-722</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-54</v>
+      </c>
+      <c r="AA73">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>606</v>
+      </c>
+      <c r="D74">
+        <v>3811</v>
+      </c>
+      <c r="E74">
+        <v>1400</v>
+      </c>
+      <c r="F74">
+        <v>2265</v>
+      </c>
+      <c r="G74">
+        <v>3793</v>
+      </c>
+      <c r="H74">
+        <v>12161</v>
+      </c>
+      <c r="I74">
+        <v>1222</v>
+      </c>
+      <c r="J74">
+        <v>6362</v>
+      </c>
+      <c r="K74">
+        <v>12</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3341</v>
+      </c>
+      <c r="O74">
+        <v>11964</v>
+      </c>
+      <c r="P74">
+        <v>6375</v>
+      </c>
+      <c r="Q74">
+        <v>-115</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>34500</v>
+      </c>
+      <c r="T74">
+        <v>197</v>
+      </c>
+      <c r="U74">
+        <v>726</v>
+      </c>
+      <c r="V74">
+        <v>862</v>
+      </c>
+      <c r="W74">
+        <v>-326</v>
+      </c>
+      <c r="X74">
+        <v>-978</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>118</v>
+      </c>
+      <c r="AA74">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>560</v>
+      </c>
+      <c r="D75">
+        <v>3884</v>
+      </c>
+      <c r="E75">
+        <v>1547</v>
+      </c>
+      <c r="F75">
+        <v>2298</v>
+      </c>
+      <c r="G75">
+        <v>4133</v>
+      </c>
+      <c r="H75">
+        <v>12883</v>
+      </c>
+      <c r="I75">
+        <v>1215</v>
+      </c>
+      <c r="J75">
+        <v>6659</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1774</v>
+      </c>
+      <c r="N75">
+        <v>3865</v>
+      </c>
+      <c r="O75">
+        <v>13093</v>
+      </c>
+      <c r="P75">
+        <v>7195</v>
+      </c>
+      <c r="Q75">
+        <v>117</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-210</v>
+      </c>
+      <c r="U75">
+        <v>843</v>
+      </c>
+      <c r="V75">
+        <v>605</v>
+      </c>
+      <c r="W75">
+        <v>-366</v>
+      </c>
+      <c r="X75">
+        <v>-392</v>
+      </c>
+      <c r="Y75">
+        <v>369</v>
+      </c>
+      <c r="Z75">
+        <v>-27</v>
+      </c>
+      <c r="AA75">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>586</v>
+      </c>
+      <c r="D76">
+        <v>3866</v>
+      </c>
+      <c r="E76">
+        <v>1590</v>
+      </c>
+      <c r="F76">
+        <v>2305</v>
+      </c>
+      <c r="G76">
+        <v>4255</v>
+      </c>
+      <c r="H76">
+        <v>13151</v>
+      </c>
+      <c r="I76">
+        <v>1209</v>
+      </c>
+      <c r="J76">
+        <v>6640</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3782</v>
+      </c>
+      <c r="O76">
+        <v>13161</v>
+      </c>
+      <c r="P76">
+        <v>7328</v>
+      </c>
+      <c r="Q76">
+        <v>20</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-10</v>
+      </c>
+      <c r="U76">
+        <v>863</v>
+      </c>
+      <c r="V76">
+        <v>644</v>
+      </c>
+      <c r="W76">
+        <v>-404</v>
+      </c>
+      <c r="X76">
+        <v>-512</v>
+      </c>
+      <c r="Y76">
+        <v>530</v>
+      </c>
+      <c r="Z76">
+        <v>-39</v>
+      </c>
+      <c r="AA76">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>578</v>
+      </c>
+      <c r="D77">
+        <v>3928</v>
+      </c>
+      <c r="E77">
+        <v>1495</v>
+      </c>
+      <c r="F77">
+        <v>2317</v>
+      </c>
+      <c r="G77">
+        <v>4349</v>
+      </c>
+      <c r="H77">
+        <v>15026</v>
+      </c>
+      <c r="I77">
+        <v>1188</v>
+      </c>
+      <c r="J77">
+        <v>7646</v>
+      </c>
+      <c r="K77">
+        <v>503</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4231</v>
+      </c>
+      <c r="O77">
+        <v>14852</v>
+      </c>
+      <c r="P77">
+        <v>8804</v>
+      </c>
+      <c r="Q77">
+        <v>85</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>174</v>
+      </c>
+      <c r="U77">
+        <v>948</v>
+      </c>
+      <c r="V77">
+        <v>914</v>
+      </c>
+      <c r="W77">
+        <v>-370</v>
+      </c>
+      <c r="X77">
+        <v>1054</v>
+      </c>
+      <c r="Y77">
+        <v>505</v>
+      </c>
+      <c r="Z77">
+        <v>-72</v>
+      </c>
+      <c r="AA77">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>643</v>
+      </c>
+      <c r="D78">
+        <v>4015</v>
+      </c>
+      <c r="E78">
+        <v>1440</v>
+      </c>
+      <c r="F78">
+        <v>2416</v>
+      </c>
+      <c r="G78">
+        <v>4179</v>
+      </c>
+      <c r="H78">
+        <v>15034</v>
+      </c>
+      <c r="I78">
+        <v>1237</v>
+      </c>
+      <c r="J78">
+        <v>7313</v>
+      </c>
+      <c r="K78">
+        <v>260</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4038</v>
+      </c>
+      <c r="O78">
+        <v>14476</v>
+      </c>
+      <c r="P78">
+        <v>8483</v>
+      </c>
+      <c r="Q78">
+        <v>-65</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>34300</v>
+      </c>
+      <c r="T78">
+        <v>558</v>
+      </c>
+      <c r="U78">
+        <v>883</v>
+      </c>
+      <c r="V78">
+        <v>970</v>
+      </c>
+      <c r="W78">
+        <v>-333</v>
+      </c>
+      <c r="X78">
+        <v>-1020</v>
+      </c>
+      <c r="Y78">
+        <v>511</v>
+      </c>
+      <c r="Z78">
+        <v>85</v>
+      </c>
+      <c r="AA78">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>715</v>
+      </c>
+      <c r="D79">
+        <v>4097</v>
+      </c>
+      <c r="E79">
+        <v>1551</v>
+      </c>
+      <c r="F79">
+        <v>2469</v>
+      </c>
+      <c r="G79">
+        <v>4248</v>
+      </c>
+      <c r="H79">
+        <v>15070</v>
+      </c>
+      <c r="I79">
+        <v>1216</v>
+      </c>
+      <c r="J79">
+        <v>7336</v>
+      </c>
+      <c r="K79">
+        <v>255</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1200</v>
+      </c>
+      <c r="N79">
+        <v>4443</v>
+      </c>
+      <c r="O79">
+        <v>14729</v>
+      </c>
+      <c r="P79">
+        <v>7846</v>
+      </c>
+      <c r="Q79">
+        <v>-29</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>341</v>
+      </c>
+      <c r="U79">
+        <v>854</v>
+      </c>
+      <c r="V79">
+        <v>768</v>
+      </c>
+      <c r="W79">
+        <v>-373</v>
+      </c>
+      <c r="X79">
+        <v>-308</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-26</v>
+      </c>
+      <c r="AA79">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>635</v>
+      </c>
+      <c r="D80">
+        <v>3897</v>
+      </c>
+      <c r="E80">
+        <v>1231</v>
+      </c>
+      <c r="F80">
+        <v>2369</v>
+      </c>
+      <c r="G80">
+        <v>4212</v>
+      </c>
+      <c r="H80">
+        <v>15141</v>
+      </c>
+      <c r="I80">
+        <v>1189</v>
+      </c>
+      <c r="J80">
+        <v>6892</v>
+      </c>
+      <c r="K80">
+        <v>253</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4580</v>
+      </c>
+      <c r="O80">
+        <v>14409</v>
+      </c>
+      <c r="P80">
+        <v>7400</v>
+      </c>
+      <c r="Q80">
+        <v>143</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>732</v>
+      </c>
+      <c r="U80">
+        <v>997</v>
+      </c>
+      <c r="V80">
+        <v>1026</v>
+      </c>
+      <c r="W80">
+        <v>-411</v>
+      </c>
+      <c r="X80">
+        <v>-833</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>20</v>
+      </c>
+      <c r="AA80">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>698</v>
+      </c>
+      <c r="D81">
+        <v>4153</v>
+      </c>
+      <c r="E81">
+        <v>1292</v>
+      </c>
+      <c r="F81">
+        <v>2540</v>
+      </c>
+      <c r="G81">
+        <v>4367</v>
+      </c>
+      <c r="H81">
+        <v>15466</v>
+      </c>
+      <c r="I81">
+        <v>1225</v>
+      </c>
+      <c r="J81">
+        <v>6975</v>
+      </c>
+      <c r="K81">
+        <v>9</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4481</v>
+      </c>
+      <c r="O81">
+        <v>14393</v>
+      </c>
+      <c r="P81">
+        <v>7240</v>
+      </c>
+      <c r="Q81">
+        <v>-8</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1073</v>
+      </c>
+      <c r="U81">
+        <v>989</v>
+      </c>
+      <c r="V81">
+        <v>962</v>
+      </c>
+      <c r="W81">
+        <v>-378</v>
+      </c>
+      <c r="X81">
+        <v>-827</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-61</v>
+      </c>
+      <c r="AA81">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>647</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>4324</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1264</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2643</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4338</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>15920</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1393</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7300</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>258</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>4404</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>14819</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>8214</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-101</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>34200</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>1101</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>888</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>963</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-340</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-951</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>510</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>48</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>647</v>
       </c>
     </row>
